--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Models\eps-1.2.3 WIP-K\InputData\elec\PTCF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -26,7 +21,7 @@
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
   <si>
     <t>June</t>
   </si>
@@ -51,9 +46,6 @@
   </si>
   <si>
     <t>Geothermal</t>
-  </si>
-  <si>
-    <t>coal</t>
   </si>
   <si>
     <t>natural gas nonpeaker</t>
@@ -934,14 +926,26 @@
   <si>
     <t>&lt;needs additional information if winter</t>
   </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1391,14 +1395,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1412,7 +1416,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1427,7 +1431,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1466,24 +1470,24 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1500,7 +1504,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,7 +1516,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2077,7 +2081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2087,9 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2101,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2109,27 +2111,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,57 +2147,57 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,57 +2213,57 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2277,50 +2279,50 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2328,90 +2330,90 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2696,7 @@
   <sheetData>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2702,7 +2704,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2710,7 +2712,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2728,7 +2730,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2737,7 +2739,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12">
         <v>2012</v>
@@ -2749,7 +2751,7 @@
         <v>2014</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2972,7 +2974,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="12">
         <v>2012</v>
@@ -2984,7 +2986,7 @@
         <v>2014</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3248,7 +3250,7 @@
     </row>
     <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -3257,7 +3259,7 @@
     </row>
     <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="12">
         <v>2012</v>
@@ -3269,7 +3271,7 @@
         <v>2014</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3483,7 +3485,7 @@
     </row>
     <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3492,7 +3494,7 @@
     </row>
     <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="12">
         <v>2012</v>
@@ -3504,7 +3506,7 @@
         <v>2014</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3802,7 +3804,7 @@
     </row>
     <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="12">
         <v>2012</v>
@@ -3814,7 +3816,7 @@
         <v>2014</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4028,7 +4030,7 @@
     </row>
     <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -4037,7 +4039,7 @@
     </row>
     <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" s="12">
         <v>2012</v>
@@ -4049,7 +4051,7 @@
         <v>2014</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4273,7 +4275,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -4281,7 +4283,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -4289,7 +4291,7 @@
     </row>
     <row r="138" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -4298,7 +4300,7 @@
     </row>
     <row r="139" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C139" s="12">
         <v>2012</v>
@@ -4310,7 +4312,7 @@
         <v>2014</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4668,7 +4670,7 @@
     <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4679,7 +4681,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4699,7 +4701,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="66"/>
@@ -4710,7 +4712,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="66"/>
@@ -4721,13 +4723,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -4799,7 +4801,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="66"/>
@@ -4810,7 +4812,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="66"/>
@@ -4821,13 +4823,13 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -4836,7 +4838,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="39">
         <v>4.6371825985489279E-2</v>
@@ -4851,7 +4853,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="39">
         <v>2.8303562854124657E-2</v>
@@ -4864,7 +4866,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="39">
         <v>8.9019975031211007E-2</v>
@@ -4886,7 +4888,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -4897,7 +4899,7 @@
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
@@ -4935,7 +4937,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4963,13 +4965,13 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="69"/>
       <c r="D27" s="70"/>
       <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -4980,16 +4982,16 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="70"/>
       <c r="E28" s="25"/>
       <c r="F28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -4999,13 +5001,13 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="33">
@@ -5032,10 +5034,10 @@
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>53</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
@@ -5178,7 +5180,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="69"/>
       <c r="D38" s="70"/>
@@ -5193,7 +5195,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="70"/>
@@ -5208,13 +5210,13 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>50</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>51</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="28"/>
@@ -5227,7 +5229,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="31">
         <v>0.29543103200053838</v>
@@ -5246,7 +5248,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="31">
         <v>0.11364289283734244</v>
@@ -5265,7 +5267,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="31">
         <v>0.17482997682332424</v>
@@ -5284,7 +5286,7 @@
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="31">
         <v>0.17005799552891365</v>
@@ -5303,7 +5305,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="31">
         <v>0.2053475719253573</v>
@@ -5322,7 +5324,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="31">
         <v>0.23759799236782317</v>
@@ -5341,7 +5343,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="31">
         <v>0.17854608620047629</v>
@@ -5494,16 +5496,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,7 +5519,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,7 +5533,7 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,7 +5547,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,7 +5561,7 @@
         <v>0.128</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5665,10 +5667,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="57">
         <v>0.156</v>
@@ -5676,7 +5678,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,19 +5768,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="C1" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>149</v>
-      </c>
       <c r="E1" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5789,10 +5791,10 @@
         <v>44659</v>
       </c>
       <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
         <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
       </c>
       <c r="E2">
         <f>MONTH(C2)</f>
@@ -5807,10 +5809,10 @@
         <v>45884</v>
       </c>
       <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
         <v>152</v>
-      </c>
-      <c r="D3" t="s">
-        <v>153</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">MONTH(C3)</f>
@@ -5825,10 +5827,10 @@
         <v>43784</v>
       </c>
       <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -5843,10 +5845,10 @@
         <v>41419</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>157</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -5861,10 +5863,10 @@
         <v>42441</v>
       </c>
       <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -5879,10 +5881,10 @@
         <v>42689</v>
       </c>
       <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
         <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -5897,10 +5899,10 @@
         <v>45597</v>
       </c>
       <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
         <v>162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>163</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -5915,10 +5917,10 @@
         <v>45431</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -5933,10 +5935,10 @@
         <v>50270</v>
       </c>
       <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
         <v>165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -5951,10 +5953,10 @@
         <v>48615</v>
       </c>
       <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
         <v>167</v>
-      </c>
-      <c r="D11" t="s">
-        <v>168</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -5969,10 +5971,10 @@
         <v>46897</v>
       </c>
       <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
         <v>169</v>
-      </c>
-      <c r="D12" t="s">
-        <v>170</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -5987,10 +5989,10 @@
         <v>46042</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -6005,10 +6007,10 @@
         <v>47350</v>
       </c>
       <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
         <v>172</v>
-      </c>
-      <c r="D14" t="s">
-        <v>173</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -6023,10 +6025,10 @@
         <v>45545</v>
       </c>
       <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
         <v>174</v>
-      </c>
-      <c r="D15" t="s">
-        <v>175</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -6041,10 +6043,10 @@
         <v>46846</v>
       </c>
       <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
         <v>176</v>
-      </c>
-      <c r="D16" t="s">
-        <v>177</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -6059,10 +6061,10 @@
         <v>45097</v>
       </c>
       <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
         <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -6077,10 +6079,10 @@
         <v>45089</v>
       </c>
       <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
         <v>180</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -6095,10 +6097,10 @@
         <v>47358</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -6110,7 +6112,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="62"/>
     </row>
@@ -6143,7 +6145,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -6186,27 +6188,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="44">
         <f>SUMPRODUCT(CAISO!F15:F18,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6216,15 +6218,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="44">
         <f>SUMPRODUCT(CAISO!F30:F33,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6234,15 +6236,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="45">
         <f>ERCOT!D7</f>
@@ -6252,15 +6254,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="45">
         <f>AVERAGE(ERCOT!F29:G29)</f>
@@ -6270,15 +6272,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="46">
         <f>'MISO-Wind'!D13</f>
@@ -6288,15 +6290,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="45">
         <v>0.38800000000000001</v>
@@ -6305,15 +6307,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="45">
         <v>0.14000000000000001</v>
@@ -6322,15 +6324,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="45">
         <v>0.46</v>
@@ -6339,15 +6341,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="46">
         <f>AVERAGE(0.07,0.14)</f>
@@ -6357,15 +6359,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="45">
         <v>0.05</v>
@@ -6374,15 +6376,15 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="45">
         <v>0.38</v>
@@ -6391,15 +6393,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="45">
         <v>0.13</v>
@@ -6408,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6421,11 +6423,9 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6435,12 +6435,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -6472,25 +6472,25 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="B6" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,PTCF!A6,'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,PTCF!A6,'Wind and Solar Capacity Factors'!$D$2:$D$13,0))</f>
+        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"wind",'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"wind",'Wind and Solar Capacity Factors'!$D$2:$D$13,0))</f>
         <v>0.17157915306838414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,PTCF!A7,'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,PTCF!A7,'Wind and Solar Capacity Factors'!$D$2:$D$13,1))</f>
+        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"solar PV",'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"solar pv",'Wind and Solar Capacity Factors'!$D$2:$D$13,1))</f>
         <v>0.5900427138981339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -6522,10 +6522,28 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B6</f>
+        <v>0.17157915306838414</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\PTCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="186">
   <si>
     <t>June</t>
   </si>
@@ -57,9 +62,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar pv</t>
   </si>
   <si>
@@ -312,9 +314,6 @@
     <t>Texas Market - Solar</t>
   </si>
   <si>
-    <t>Texas Market - Wind</t>
-  </si>
-  <si>
     <t>CDR Peak Ave Solar Capacity Percentages 02-24-2016</t>
   </si>
   <si>
@@ -324,12 +323,6 @@
     <t>Summary Tab</t>
   </si>
   <si>
-    <t>CDR Peak Ave Wind Capacity Percentages 04-12-2016</t>
-  </si>
-  <si>
-    <t>http://www.ercot.com/content/wcm/lists/91622/CDR_PeakAveWindCapacityPercentages_4_12_2016.xlsx</t>
-  </si>
-  <si>
     <t>Midwest Market</t>
   </si>
   <si>
@@ -360,9 +353,6 @@
     <t>New York Market - Solar</t>
   </si>
   <si>
-    <t>New York Market - Wind</t>
-  </si>
-  <si>
     <t>New York State Reliability Council, LLC</t>
   </si>
   <si>
@@ -375,15 +365,9 @@
     <t>p. 22</t>
   </si>
   <si>
-    <t>p.21</t>
-  </si>
-  <si>
     <t>ISO-NE</t>
   </si>
   <si>
-    <t>New England Market</t>
-  </si>
-  <si>
     <t>ISO New England</t>
   </si>
   <si>
@@ -414,19 +398,7 @@
     <t>p. 23</t>
   </si>
   <si>
-    <t>Mid-Atlantic Market</t>
-  </si>
-  <si>
     <t>PJM</t>
-  </si>
-  <si>
-    <t>https://www.pjm.com/~/media/documents/manuals/m21.ashx</t>
-  </si>
-  <si>
-    <t>Manual 21</t>
-  </si>
-  <si>
-    <t>p. 19</t>
   </si>
   <si>
     <t>Peak time capacity factors are meant to represent the average availability of resources to meeting peak</t>
@@ -938,16 +910,34 @@
   <si>
     <t>offshore wind</t>
   </si>
+  <si>
+    <t>Texas, New York, and New England Market - Wind</t>
+  </si>
+  <si>
+    <t>New England Market - Solar</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory</t>
+  </si>
+  <si>
+    <t>Estimating the Value of Offshore Wind Along the United States' Eastern Coast</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/sites/prod/files/2018/04/f50/offshore_erl_lbnl_format_final.pdf</t>
+  </si>
+  <si>
+    <t>Figure 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,6 +1071,14 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1373,7 +1371,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1387,8 +1385,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1495,6 +1494,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1507,23 +1518,18 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
     <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -2081,7 +2087,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2091,50 +2097,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.59765625" customWidth="1"/>
+    <col min="8" max="8" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2014</v>
       </c>
@@ -2142,278 +2150,260 @@
         <v>2016</v>
       </c>
       <c r="H5" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
         <v>94</v>
       </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2015</v>
       </c>
       <c r="E12" s="3">
         <v>2015</v>
       </c>
-      <c r="H12" s="3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="74"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
       <c r="E19" s="3">
         <v>2015</v>
       </c>
-      <c r="H19" s="3">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="3" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="3" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
-        <v>67</v>
-      </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2422,8 +2412,11 @@
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2433,313 +2426,313 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="5" customWidth="1"/>
-    <col min="258" max="258" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="259" max="261" width="9" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="513" max="513" width="5" customWidth="1"/>
-    <col min="514" max="514" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="515" max="517" width="9" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="769" max="769" width="5" customWidth="1"/>
-    <col min="770" max="770" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="771" max="773" width="9" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="1025" max="1025" width="5" customWidth="1"/>
-    <col min="1026" max="1026" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="1027" max="1029" width="9" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="1281" max="1281" width="5" customWidth="1"/>
-    <col min="1282" max="1282" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="1283" max="1285" width="9" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="1537" max="1537" width="5" customWidth="1"/>
-    <col min="1538" max="1538" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="1539" max="1541" width="9" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="1793" max="1793" width="5" customWidth="1"/>
-    <col min="1794" max="1794" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="1795" max="1797" width="9" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="2049" max="2049" width="5" customWidth="1"/>
-    <col min="2050" max="2050" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="2051" max="2053" width="9" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="2305" max="2305" width="5" customWidth="1"/>
-    <col min="2306" max="2306" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="2307" max="2309" width="9" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="2561" max="2561" width="5" customWidth="1"/>
-    <col min="2562" max="2562" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="2563" max="2565" width="9" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="2817" max="2817" width="5" customWidth="1"/>
-    <col min="2818" max="2818" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="2819" max="2821" width="9" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="3073" max="3073" width="5" customWidth="1"/>
-    <col min="3074" max="3074" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="3075" max="3077" width="9" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="3329" max="3329" width="5" customWidth="1"/>
-    <col min="3330" max="3330" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="3331" max="3333" width="9" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="3585" max="3585" width="5" customWidth="1"/>
-    <col min="3586" max="3586" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="3587" max="3589" width="9" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="3841" max="3841" width="5" customWidth="1"/>
-    <col min="3842" max="3842" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="3843" max="3845" width="9" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="4097" max="4097" width="5" customWidth="1"/>
-    <col min="4098" max="4098" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="4099" max="4101" width="9" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="4353" max="4353" width="5" customWidth="1"/>
-    <col min="4354" max="4354" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="4355" max="4357" width="9" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="4609" max="4609" width="5" customWidth="1"/>
-    <col min="4610" max="4610" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="4611" max="4613" width="9" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="4865" max="4865" width="5" customWidth="1"/>
-    <col min="4866" max="4866" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="4867" max="4869" width="9" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="5121" max="5121" width="5" customWidth="1"/>
-    <col min="5122" max="5122" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="5123" max="5125" width="9" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="5377" max="5377" width="5" customWidth="1"/>
-    <col min="5378" max="5378" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="5379" max="5381" width="9" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="5633" max="5633" width="5" customWidth="1"/>
-    <col min="5634" max="5634" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="5635" max="5637" width="9" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="5889" max="5889" width="5" customWidth="1"/>
-    <col min="5890" max="5890" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="5891" max="5893" width="9" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="6145" max="6145" width="5" customWidth="1"/>
-    <col min="6146" max="6146" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="6147" max="6149" width="9" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="6401" max="6401" width="5" customWidth="1"/>
-    <col min="6402" max="6402" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="6403" max="6405" width="9" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="6657" max="6657" width="5" customWidth="1"/>
-    <col min="6658" max="6658" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="6659" max="6661" width="9" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="6913" max="6913" width="5" customWidth="1"/>
-    <col min="6914" max="6914" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="6915" max="6917" width="9" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="7169" max="7169" width="5" customWidth="1"/>
-    <col min="7170" max="7170" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="7171" max="7173" width="9" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="7425" max="7425" width="5" customWidth="1"/>
-    <col min="7426" max="7426" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="7427" max="7429" width="9" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="7681" max="7681" width="5" customWidth="1"/>
-    <col min="7682" max="7682" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="7683" max="7685" width="9" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="7937" max="7937" width="5" customWidth="1"/>
-    <col min="7938" max="7938" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="7939" max="7941" width="9" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="8193" max="8193" width="5" customWidth="1"/>
-    <col min="8194" max="8194" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="8195" max="8197" width="9" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="8449" max="8449" width="5" customWidth="1"/>
-    <col min="8450" max="8450" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="8451" max="8453" width="9" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="8705" max="8705" width="5" customWidth="1"/>
-    <col min="8706" max="8706" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="8707" max="8709" width="9" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="8961" max="8961" width="5" customWidth="1"/>
-    <col min="8962" max="8962" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="8963" max="8965" width="9" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="9217" max="9217" width="5" customWidth="1"/>
-    <col min="9218" max="9218" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="9219" max="9221" width="9" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="9473" max="9473" width="5" customWidth="1"/>
-    <col min="9474" max="9474" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="9475" max="9477" width="9" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="9729" max="9729" width="5" customWidth="1"/>
-    <col min="9730" max="9730" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="9731" max="9733" width="9" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="9985" max="9985" width="5" customWidth="1"/>
-    <col min="9986" max="9986" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="9987" max="9989" width="9" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="10241" max="10241" width="5" customWidth="1"/>
-    <col min="10242" max="10242" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="10243" max="10245" width="9" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="10497" max="10497" width="5" customWidth="1"/>
-    <col min="10498" max="10498" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="10499" max="10501" width="9" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="10753" max="10753" width="5" customWidth="1"/>
-    <col min="10754" max="10754" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="10755" max="10757" width="9" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="11009" max="11009" width="5" customWidth="1"/>
-    <col min="11010" max="11010" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="11011" max="11013" width="9" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="11265" max="11265" width="5" customWidth="1"/>
-    <col min="11266" max="11266" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="11267" max="11269" width="9" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="11521" max="11521" width="5" customWidth="1"/>
-    <col min="11522" max="11522" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="11523" max="11525" width="9" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="11777" max="11777" width="5" customWidth="1"/>
-    <col min="11778" max="11778" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="11779" max="11781" width="9" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="12033" max="12033" width="5" customWidth="1"/>
-    <col min="12034" max="12034" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="12035" max="12037" width="9" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="12289" max="12289" width="5" customWidth="1"/>
-    <col min="12290" max="12290" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="12291" max="12293" width="9" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="12545" max="12545" width="5" customWidth="1"/>
-    <col min="12546" max="12546" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="12547" max="12549" width="9" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="12801" max="12801" width="5" customWidth="1"/>
-    <col min="12802" max="12802" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="12803" max="12805" width="9" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="13057" max="13057" width="5" customWidth="1"/>
-    <col min="13058" max="13058" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="13059" max="13061" width="9" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="13313" max="13313" width="5" customWidth="1"/>
-    <col min="13314" max="13314" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="13315" max="13317" width="9" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="13569" max="13569" width="5" customWidth="1"/>
-    <col min="13570" max="13570" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="13571" max="13573" width="9" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="13825" max="13825" width="5" customWidth="1"/>
-    <col min="13826" max="13826" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="13827" max="13829" width="9" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="14081" max="14081" width="5" customWidth="1"/>
-    <col min="14082" max="14082" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="14083" max="14085" width="9" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="14337" max="14337" width="5" customWidth="1"/>
-    <col min="14338" max="14338" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="14339" max="14341" width="9" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="14593" max="14593" width="5" customWidth="1"/>
-    <col min="14594" max="14594" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="14595" max="14597" width="9" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="14849" max="14849" width="5" customWidth="1"/>
-    <col min="14850" max="14850" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="14851" max="14853" width="9" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="15105" max="15105" width="5" customWidth="1"/>
-    <col min="15106" max="15106" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="15107" max="15109" width="9" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="15361" max="15361" width="5" customWidth="1"/>
-    <col min="15362" max="15362" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="15363" max="15365" width="9" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="15617" max="15617" width="5" customWidth="1"/>
-    <col min="15618" max="15618" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="15619" max="15621" width="9" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="15873" max="15873" width="5" customWidth="1"/>
-    <col min="15874" max="15874" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="15875" max="15877" width="9" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="33.86328125" bestFit="1" customWidth="1"/>
     <col min="16129" max="16129" width="5" customWidth="1"/>
-    <col min="16130" max="16130" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="16.265625" bestFit="1" customWidth="1"/>
     <col min="16131" max="16133" width="9" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="33.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12">
         <v>2012</v>
@@ -2751,10 +2744,10 @@
         <v>2014</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <v>1</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>4.1810951014954224E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B11" s="14">
         <v>2</v>
       </c>
@@ -2788,7 +2781,7 @@
         <v>5.423038762452622E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <v>3</v>
       </c>
@@ -2805,7 +2798,7 @@
         <v>0.15781069500250813</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B13" s="14">
         <v>4</v>
       </c>
@@ -2822,7 +2815,7 @@
         <v>0.79336748051771089</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <v>5</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v>0.72222794276683711</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B15" s="14">
         <v>6</v>
       </c>
@@ -2856,7 +2849,7 @@
         <v>0.97449265677223329</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B16" s="14">
         <v>7</v>
       </c>
@@ -2873,7 +2866,7 @@
         <v>0.89819451892317659</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B17" s="14">
         <v>8</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>0.9360895932992368</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B18" s="14">
         <v>9</v>
       </c>
@@ -2907,7 +2900,7 @@
         <v>0.8957278647164082</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B19" s="14">
         <v>10</v>
       </c>
@@ -2924,7 +2917,7 @@
         <v>0.48279591077709649</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B20" s="14">
         <v>11</v>
       </c>
@@ -2941,7 +2934,7 @@
         <v>2.7040082246508439E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B21" s="14">
         <v>12</v>
       </c>
@@ -2958,12 +2951,12 @@
         <v>3.1549062026577424E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
@@ -2972,9 +2965,9 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="12">
         <v>2012</v>
@@ -2986,10 +2979,10 @@
         <v>2014</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B25" s="14">
         <v>1</v>
       </c>
@@ -3006,7 +2999,7 @@
         <v>3.7989193781634338E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B26" s="14">
         <v>2</v>
       </c>
@@ -3023,7 +3016,7 @@
         <v>0.1197607748426545</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B27" s="14">
         <v>3</v>
       </c>
@@ -3040,7 +3033,7 @@
         <v>0.19862598788316285</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B28" s="14">
         <v>4</v>
       </c>
@@ -3057,7 +3050,7 @@
         <v>0.1843499280511729</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B29" s="14">
         <v>5</v>
       </c>
@@ -3074,7 +3067,7 @@
         <v>0.31052102051406538</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B30" s="14">
         <v>6</v>
       </c>
@@ -3091,7 +3084,7 @@
         <v>0.27770834147107132</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B31" s="14">
         <v>7</v>
       </c>
@@ -3108,7 +3101,7 @@
         <v>0.17290165464937643</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B32" s="14">
         <v>8</v>
       </c>
@@ -3125,7 +3118,7 @@
         <v>0.15723120968187917</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B33" s="14">
         <v>9</v>
       </c>
@@ -3142,7 +3135,7 @@
         <v>0.1068338063854955</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B34" s="14">
         <v>10</v>
       </c>
@@ -3159,7 +3152,7 @@
         <v>7.2594098945639327E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B35" s="14">
         <v>11</v>
       </c>
@@ -3176,7 +3169,7 @@
         <v>3.2253247399387779E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B36" s="14">
         <v>12</v>
       </c>
@@ -3193,73 +3186,73 @@
         <v>5.5468247823068723E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B49" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="12">
         <v>2012</v>
@@ -3271,10 +3264,10 @@
         <v>2014</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B50" s="14">
         <v>1</v>
       </c>
@@ -3291,7 +3284,7 @@
         <v>0.74421427290862463</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B51" s="14">
         <v>2</v>
       </c>
@@ -3308,7 +3301,7 @@
         <v>0.7151128127129055</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B52" s="14">
         <v>3</v>
       </c>
@@ -3325,7 +3318,7 @@
         <v>0.73693528474756975</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B53" s="14">
         <v>4</v>
       </c>
@@ -3342,7 +3335,7 @@
         <v>0.61744545427834785</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B54" s="14">
         <v>5</v>
       </c>
@@ -3359,7 +3352,7 @@
         <v>0.65881868446237524</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B55" s="14">
         <v>6</v>
       </c>
@@ -3376,7 +3369,7 @@
         <v>0.7410663742064979</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B56" s="14">
         <v>7</v>
       </c>
@@ -3393,7 +3386,7 @@
         <v>0.76051940594852585</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B57" s="14">
         <v>8</v>
       </c>
@@ -3410,7 +3403,7 @@
         <v>0.76527218517193452</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B58" s="14">
         <v>9</v>
       </c>
@@ -3427,7 +3420,7 @@
         <v>0.74835297138424417</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B59" s="14">
         <v>10</v>
       </c>
@@ -3444,7 +3437,7 @@
         <v>0.7128401295587764</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B60" s="14">
         <v>11</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>0.68683033236943947</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B61" s="14">
         <v>12</v>
       </c>
@@ -3478,23 +3471,23 @@
         <v>0.71857721312369949</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B63" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B64" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="12">
         <v>2012</v>
@@ -3506,10 +3499,10 @@
         <v>2014</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B65" s="14">
         <v>1</v>
       </c>
@@ -3526,7 +3519,7 @@
         <v>0.58191784619994402</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B66" s="14">
         <v>2</v>
       </c>
@@ -3543,7 +3536,7 @@
         <v>0.58402814976105022</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B67" s="14">
         <v>3</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>0.53316287957274111</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B68" s="14">
         <v>4</v>
       </c>
@@ -3577,7 +3570,7 @@
         <v>0.51897206508503935</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B69" s="14">
         <v>5</v>
       </c>
@@ -3594,7 +3587,7 @@
         <v>0.55293636193522289</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B70" s="14">
         <v>6</v>
       </c>
@@ -3611,7 +3604,7 @@
         <v>0.65617411113438573</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B71" s="14">
         <v>7</v>
       </c>
@@ -3628,7 +3621,7 @@
         <v>0.66943384231573466</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B72" s="14">
         <v>8</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>0.65749022984685468</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B73" s="14">
         <v>9</v>
       </c>
@@ -3662,7 +3655,7 @@
         <v>0.64137697693961371</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B74" s="14">
         <v>10</v>
       </c>
@@ -3679,7 +3672,7 @@
         <v>0.5480306114193646</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B75" s="14">
         <v>11</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>0.55271401284712629</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B76" s="14">
         <v>12</v>
       </c>
@@ -3713,87 +3706,87 @@
         <v>0.57469670271293227</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B93" s="8" t="s">
         <v>4</v>
       </c>
@@ -3802,9 +3795,9 @@
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B94" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="12">
         <v>2012</v>
@@ -3816,10 +3809,10 @@
         <v>2014</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B95" s="14">
         <v>1</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>0.84632596596785614</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B96" s="14">
         <v>2</v>
       </c>
@@ -3853,7 +3846,7 @@
         <v>0.84888042300297339</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B97" s="14">
         <v>3</v>
       </c>
@@ -3870,7 +3863,7 @@
         <v>0.82872955227183198</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B98" s="14">
         <v>4</v>
       </c>
@@ -3887,7 +3880,7 @@
         <v>0.80432839958893532</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B99" s="14">
         <v>5</v>
       </c>
@@ -3904,7 +3897,7 @@
         <v>0.80801337594836509</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B100" s="14">
         <v>6</v>
       </c>
@@ -3921,7 +3914,7 @@
         <v>0.78390857395895885</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B101" s="14">
         <v>7</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>0.79750081686144947</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B102" s="14">
         <v>8</v>
       </c>
@@ -3955,7 +3948,7 @@
         <v>0.79248057840392327</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B103" s="14">
         <v>9</v>
       </c>
@@ -3972,7 +3965,7 @@
         <v>0.79593737119853125</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B104" s="14">
         <v>10</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>0.81007735153585403</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B105" s="14">
         <v>11</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>0.82823311434257085</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B106" s="14">
         <v>12</v>
       </c>
@@ -4023,23 +4016,23 @@
         <v>0.83287773458886127</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B108" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B109" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C109" s="12">
         <v>2012</v>
@@ -4051,10 +4044,10 @@
         <v>2014</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B110" s="14">
         <v>1</v>
       </c>
@@ -4071,7 +4064,7 @@
         <v>0.31798197772746178</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B111" s="14">
         <v>2</v>
       </c>
@@ -4088,7 +4081,7 @@
         <v>0.2940533320523771</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B112" s="14">
         <v>3</v>
       </c>
@@ -4105,7 +4098,7 @@
         <v>0.31946077764098918</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B113" s="14">
         <v>4</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>0.33105781135332252</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B114" s="14">
         <v>5</v>
       </c>
@@ -4139,7 +4132,7 @@
         <v>0.46699070847987767</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B115" s="14">
         <v>6</v>
       </c>
@@ -4156,7 +4149,7 @@
         <v>0.50635611646268508</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B116" s="14">
         <v>7</v>
       </c>
@@ -4173,7 +4166,7 @@
         <v>0.54908631236423433</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B117" s="14">
         <v>8</v>
       </c>
@@ -4190,7 +4183,7 @@
         <v>0.49643514217795809</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B118" s="14">
         <v>9</v>
       </c>
@@ -4207,7 +4200,7 @@
         <v>0.40601028474036077</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B119" s="14">
         <v>10</v>
       </c>
@@ -4224,7 +4217,7 @@
         <v>0.26926367481794533</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B120" s="14">
         <v>11</v>
       </c>
@@ -4241,7 +4234,7 @@
         <v>0.28388040368672424</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B121" s="14">
         <v>12</v>
       </c>
@@ -4258,49 +4251,49 @@
         <v>0.29904356408148353</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="138" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B138" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B139" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" s="12">
         <v>2012</v>
@@ -4312,10 +4305,10 @@
         <v>2014</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B140" s="14">
         <v>1</v>
       </c>
@@ -4332,7 +4325,7 @@
         <v>2.446782811568717E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B141" s="14">
         <v>2</v>
       </c>
@@ -4349,7 +4342,7 @@
         <v>1.257188876119412E-2</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B142" s="14">
         <v>3</v>
       </c>
@@ -4366,7 +4359,7 @@
         <v>6.2262623737260825E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B143" s="14">
         <v>4</v>
       </c>
@@ -4383,7 +4376,7 @@
         <v>0.71675251787141703</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B144" s="14">
         <v>5</v>
       </c>
@@ -4400,7 +4393,7 @@
         <v>0.73971160384548085</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B145" s="14">
         <v>6</v>
       </c>
@@ -4417,7 +4410,7 @@
         <v>0.75670761609156234</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B146" s="14">
         <v>7</v>
       </c>
@@ -4434,7 +4427,7 @@
         <v>0.69100532759240663</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B147" s="14">
         <v>8</v>
       </c>
@@ -4451,7 +4444,7 @@
         <v>0.69238211175515263</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B148" s="14">
         <v>9</v>
       </c>
@@ -4468,7 +4461,7 @@
         <v>0.70446255581151773</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B149" s="14">
         <v>10</v>
       </c>
@@ -4485,7 +4478,7 @@
         <v>0.55587289265054229</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B150" s="14">
         <v>11</v>
       </c>
@@ -4502,7 +4495,7 @@
         <v>1.4162688629837219E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B151" s="14">
         <v>12</v>
       </c>
@@ -4535,142 +4528,142 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="257" max="257" width="4.28515625" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" customWidth="1"/>
-    <col min="513" max="513" width="4.28515625" customWidth="1"/>
-    <col min="514" max="514" width="10.140625" customWidth="1"/>
-    <col min="769" max="769" width="4.28515625" customWidth="1"/>
-    <col min="770" max="770" width="10.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="4.28515625" customWidth="1"/>
-    <col min="1026" max="1026" width="10.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="4.28515625" customWidth="1"/>
-    <col min="1282" max="1282" width="10.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="4.28515625" customWidth="1"/>
-    <col min="1538" max="1538" width="10.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="4.28515625" customWidth="1"/>
-    <col min="1794" max="1794" width="10.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="4.28515625" customWidth="1"/>
-    <col min="2050" max="2050" width="10.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="4.28515625" customWidth="1"/>
-    <col min="2306" max="2306" width="10.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="4.28515625" customWidth="1"/>
-    <col min="2562" max="2562" width="10.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="4.28515625" customWidth="1"/>
-    <col min="2818" max="2818" width="10.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="4.28515625" customWidth="1"/>
-    <col min="3074" max="3074" width="10.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="4.28515625" customWidth="1"/>
-    <col min="3330" max="3330" width="10.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="4.28515625" customWidth="1"/>
-    <col min="3586" max="3586" width="10.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="4.28515625" customWidth="1"/>
-    <col min="3842" max="3842" width="10.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="4.28515625" customWidth="1"/>
-    <col min="4098" max="4098" width="10.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="4.28515625" customWidth="1"/>
-    <col min="4354" max="4354" width="10.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="4.28515625" customWidth="1"/>
-    <col min="4610" max="4610" width="10.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="4.28515625" customWidth="1"/>
-    <col min="4866" max="4866" width="10.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="4.28515625" customWidth="1"/>
-    <col min="5122" max="5122" width="10.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="4.28515625" customWidth="1"/>
-    <col min="5378" max="5378" width="10.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="4.28515625" customWidth="1"/>
-    <col min="5634" max="5634" width="10.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="4.28515625" customWidth="1"/>
-    <col min="5890" max="5890" width="10.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="4.28515625" customWidth="1"/>
-    <col min="6146" max="6146" width="10.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="4.28515625" customWidth="1"/>
-    <col min="6402" max="6402" width="10.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="4.28515625" customWidth="1"/>
-    <col min="6658" max="6658" width="10.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="4.28515625" customWidth="1"/>
-    <col min="6914" max="6914" width="10.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="4.28515625" customWidth="1"/>
-    <col min="7170" max="7170" width="10.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="4.28515625" customWidth="1"/>
-    <col min="7426" max="7426" width="10.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="4.28515625" customWidth="1"/>
-    <col min="7682" max="7682" width="10.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="4.28515625" customWidth="1"/>
-    <col min="7938" max="7938" width="10.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="4.28515625" customWidth="1"/>
-    <col min="8194" max="8194" width="10.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="4.28515625" customWidth="1"/>
-    <col min="8450" max="8450" width="10.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="4.28515625" customWidth="1"/>
-    <col min="8706" max="8706" width="10.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="4.28515625" customWidth="1"/>
-    <col min="8962" max="8962" width="10.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="4.28515625" customWidth="1"/>
-    <col min="9218" max="9218" width="10.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="4.28515625" customWidth="1"/>
-    <col min="9474" max="9474" width="10.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="4.28515625" customWidth="1"/>
-    <col min="9730" max="9730" width="10.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="4.28515625" customWidth="1"/>
-    <col min="9986" max="9986" width="10.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="4.28515625" customWidth="1"/>
-    <col min="10242" max="10242" width="10.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="4.28515625" customWidth="1"/>
-    <col min="10498" max="10498" width="10.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="4.28515625" customWidth="1"/>
-    <col min="10754" max="10754" width="10.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="4.28515625" customWidth="1"/>
-    <col min="11010" max="11010" width="10.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="4.28515625" customWidth="1"/>
-    <col min="11266" max="11266" width="10.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="4.28515625" customWidth="1"/>
-    <col min="11522" max="11522" width="10.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="4.28515625" customWidth="1"/>
-    <col min="11778" max="11778" width="10.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="4.28515625" customWidth="1"/>
-    <col min="12034" max="12034" width="10.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="4.28515625" customWidth="1"/>
-    <col min="12290" max="12290" width="10.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="4.28515625" customWidth="1"/>
-    <col min="12546" max="12546" width="10.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="4.28515625" customWidth="1"/>
-    <col min="12802" max="12802" width="10.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="4.28515625" customWidth="1"/>
-    <col min="13058" max="13058" width="10.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="4.28515625" customWidth="1"/>
-    <col min="13314" max="13314" width="10.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="4.28515625" customWidth="1"/>
-    <col min="13570" max="13570" width="10.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="4.28515625" customWidth="1"/>
-    <col min="13826" max="13826" width="10.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="4.28515625" customWidth="1"/>
-    <col min="14082" max="14082" width="10.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="4.28515625" customWidth="1"/>
-    <col min="14338" max="14338" width="10.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="4.28515625" customWidth="1"/>
-    <col min="14594" max="14594" width="10.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="4.28515625" customWidth="1"/>
-    <col min="14850" max="14850" width="10.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="4.28515625" customWidth="1"/>
-    <col min="15106" max="15106" width="10.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="4.28515625" customWidth="1"/>
-    <col min="15362" max="15362" width="10.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="4.28515625" customWidth="1"/>
-    <col min="15618" max="15618" width="10.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="4.28515625" customWidth="1"/>
-    <col min="15874" max="15874" width="10.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="4.28515625" customWidth="1"/>
-    <col min="16130" max="16130" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="257" max="257" width="4.265625" customWidth="1"/>
+    <col min="258" max="258" width="10.1328125" customWidth="1"/>
+    <col min="513" max="513" width="4.265625" customWidth="1"/>
+    <col min="514" max="514" width="10.1328125" customWidth="1"/>
+    <col min="769" max="769" width="4.265625" customWidth="1"/>
+    <col min="770" max="770" width="10.1328125" customWidth="1"/>
+    <col min="1025" max="1025" width="4.265625" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1328125" customWidth="1"/>
+    <col min="1281" max="1281" width="4.265625" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1328125" customWidth="1"/>
+    <col min="1537" max="1537" width="4.265625" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1328125" customWidth="1"/>
+    <col min="1793" max="1793" width="4.265625" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1328125" customWidth="1"/>
+    <col min="2049" max="2049" width="4.265625" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1328125" customWidth="1"/>
+    <col min="2305" max="2305" width="4.265625" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1328125" customWidth="1"/>
+    <col min="2561" max="2561" width="4.265625" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1328125" customWidth="1"/>
+    <col min="2817" max="2817" width="4.265625" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1328125" customWidth="1"/>
+    <col min="3073" max="3073" width="4.265625" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1328125" customWidth="1"/>
+    <col min="3329" max="3329" width="4.265625" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1328125" customWidth="1"/>
+    <col min="3585" max="3585" width="4.265625" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1328125" customWidth="1"/>
+    <col min="3841" max="3841" width="4.265625" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1328125" customWidth="1"/>
+    <col min="4097" max="4097" width="4.265625" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1328125" customWidth="1"/>
+    <col min="4353" max="4353" width="4.265625" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1328125" customWidth="1"/>
+    <col min="4609" max="4609" width="4.265625" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1328125" customWidth="1"/>
+    <col min="4865" max="4865" width="4.265625" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1328125" customWidth="1"/>
+    <col min="5121" max="5121" width="4.265625" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1328125" customWidth="1"/>
+    <col min="5377" max="5377" width="4.265625" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1328125" customWidth="1"/>
+    <col min="5633" max="5633" width="4.265625" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1328125" customWidth="1"/>
+    <col min="5889" max="5889" width="4.265625" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1328125" customWidth="1"/>
+    <col min="6145" max="6145" width="4.265625" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1328125" customWidth="1"/>
+    <col min="6401" max="6401" width="4.265625" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1328125" customWidth="1"/>
+    <col min="6657" max="6657" width="4.265625" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1328125" customWidth="1"/>
+    <col min="6913" max="6913" width="4.265625" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1328125" customWidth="1"/>
+    <col min="7169" max="7169" width="4.265625" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1328125" customWidth="1"/>
+    <col min="7425" max="7425" width="4.265625" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1328125" customWidth="1"/>
+    <col min="7681" max="7681" width="4.265625" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1328125" customWidth="1"/>
+    <col min="7937" max="7937" width="4.265625" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1328125" customWidth="1"/>
+    <col min="8193" max="8193" width="4.265625" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1328125" customWidth="1"/>
+    <col min="8449" max="8449" width="4.265625" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1328125" customWidth="1"/>
+    <col min="8705" max="8705" width="4.265625" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1328125" customWidth="1"/>
+    <col min="8961" max="8961" width="4.265625" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1328125" customWidth="1"/>
+    <col min="9217" max="9217" width="4.265625" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1328125" customWidth="1"/>
+    <col min="9473" max="9473" width="4.265625" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1328125" customWidth="1"/>
+    <col min="9729" max="9729" width="4.265625" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1328125" customWidth="1"/>
+    <col min="9985" max="9985" width="4.265625" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1328125" customWidth="1"/>
+    <col min="10241" max="10241" width="4.265625" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1328125" customWidth="1"/>
+    <col min="10497" max="10497" width="4.265625" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1328125" customWidth="1"/>
+    <col min="10753" max="10753" width="4.265625" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1328125" customWidth="1"/>
+    <col min="11009" max="11009" width="4.265625" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1328125" customWidth="1"/>
+    <col min="11265" max="11265" width="4.265625" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1328125" customWidth="1"/>
+    <col min="11521" max="11521" width="4.265625" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1328125" customWidth="1"/>
+    <col min="11777" max="11777" width="4.265625" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1328125" customWidth="1"/>
+    <col min="12033" max="12033" width="4.265625" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1328125" customWidth="1"/>
+    <col min="12289" max="12289" width="4.265625" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1328125" customWidth="1"/>
+    <col min="12545" max="12545" width="4.265625" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1328125" customWidth="1"/>
+    <col min="12801" max="12801" width="4.265625" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1328125" customWidth="1"/>
+    <col min="13057" max="13057" width="4.265625" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1328125" customWidth="1"/>
+    <col min="13313" max="13313" width="4.265625" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1328125" customWidth="1"/>
+    <col min="13569" max="13569" width="4.265625" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1328125" customWidth="1"/>
+    <col min="13825" max="13825" width="4.265625" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1328125" customWidth="1"/>
+    <col min="14081" max="14081" width="4.265625" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1328125" customWidth="1"/>
+    <col min="14337" max="14337" width="4.265625" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1328125" customWidth="1"/>
+    <col min="14593" max="14593" width="4.265625" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1328125" customWidth="1"/>
+    <col min="14849" max="14849" width="4.265625" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1328125" customWidth="1"/>
+    <col min="15105" max="15105" width="4.265625" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1328125" customWidth="1"/>
+    <col min="15361" max="15361" width="4.265625" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1328125" customWidth="1"/>
+    <col min="15617" max="15617" width="4.265625" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1328125" customWidth="1"/>
+    <col min="15873" max="15873" width="4.265625" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1328125" customWidth="1"/>
+    <col min="16129" max="16129" width="4.265625" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4678,10 +4671,10 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="34"/>
       <c r="B2" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -4689,7 +4682,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -4698,44 +4691,44 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
-      <c r="B4" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="34"/>
-      <c r="B5" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="34"/>
       <c r="B6" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="34"/>
       <c r="B7" s="38">
         <v>2015</v>
@@ -4750,7 +4743,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="34"/>
       <c r="B8" s="38">
         <v>2014</v>
@@ -4763,7 +4756,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="34"/>
       <c r="B9" s="38">
         <v>2013</v>
@@ -4776,7 +4769,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="34"/>
       <c r="B10" s="38">
         <v>2012</v>
@@ -4789,7 +4782,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -4798,47 +4791,47 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="34"/>
-      <c r="B12" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
+      <c r="B12" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="34"/>
-      <c r="B13" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="34"/>
       <c r="B14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="34"/>
       <c r="B15" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="39">
         <v>4.6371825985489279E-2</v>
@@ -4850,10 +4843,10 @@
       <c r="F15" s="40"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="34"/>
       <c r="B16" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="39">
         <v>2.8303562854124657E-2</v>
@@ -4863,10 +4856,10 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="34"/>
       <c r="B17" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="39">
         <v>8.9019975031211007E-2</v>
@@ -4876,7 +4869,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -4885,10 +4878,10 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="34"/>
       <c r="B19" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -4896,48 +4889,48 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="34"/>
-      <c r="B20" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="34"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="34"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="34"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="25"/>
       <c r="B25" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4949,7 +4942,7 @@
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -4962,16 +4955,16 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
-      <c r="B27" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -4979,35 +4972,35 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
-      <c r="B28" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="25"/>
       <c r="F28" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="33">
@@ -5021,7 +5014,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="25"/>
       <c r="B30" s="22">
         <v>2015</v>
@@ -5034,17 +5027,17 @@
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>51</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>52</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="25"/>
       <c r="B31" s="22">
         <v>2014</v>
@@ -5067,7 +5060,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="22">
         <v>2013</v>
@@ -5086,7 +5079,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="22">
         <v>2012</v>
@@ -5098,16 +5091,16 @@
         <v>0.52841491622905723</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="22">
         <v>2011</v>
@@ -5119,14 +5112,14 @@
         <v>0.65962836786935797</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="25"/>
       <c r="B35" s="22">
         <v>2010</v>
@@ -5138,14 +5131,14 @@
         <v>0.24876064559584415</v>
       </c>
       <c r="E35" s="25"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="22">
         <v>2009</v>
@@ -5157,14 +5150,14 @@
         <v>#N/A</v>
       </c>
       <c r="E36" s="25"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -5177,13 +5170,13 @@
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="25"/>
-      <c r="B38" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
+      <c r="B38" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="25"/>
       <c r="F38" s="28"/>
       <c r="G38" s="25"/>
@@ -5192,13 +5185,13 @@
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
-      <c r="B39" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="25"/>
       <c r="F39" s="28"/>
       <c r="G39" s="25"/>
@@ -5207,16 +5200,16 @@
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="28"/>
@@ -5226,10 +5219,10 @@
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="31">
         <v>0.29543103200053838</v>
@@ -5245,10 +5238,10 @@
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="31">
         <v>0.11364289283734244</v>
@@ -5264,10 +5257,10 @@
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="25"/>
       <c r="B43" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="31">
         <v>0.17482997682332424</v>
@@ -5283,10 +5276,10 @@
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="25"/>
       <c r="B44" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="31">
         <v>0.17005799552891365</v>
@@ -5302,10 +5295,10 @@
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="31">
         <v>0.2053475719253573</v>
@@ -5321,10 +5314,10 @@
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="31">
         <v>0.23759799236782317</v>
@@ -5340,10 +5333,10 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="31">
         <v>0.17854608620047629</v>
@@ -5359,7 +5352,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="23"/>
@@ -5372,7 +5365,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -5385,7 +5378,7 @@
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -5398,7 +5391,7 @@
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -5411,7 +5404,7 @@
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -5424,7 +5417,7 @@
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5437,7 +5430,7 @@
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5450,7 +5443,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5465,16 +5458,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:G23"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F33:K36"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5487,28 +5480,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="51">
         <v>2005</v>
       </c>
@@ -5519,10 +5512,10 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="51">
         <v>2006</v>
       </c>
@@ -5533,10 +5526,10 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="51">
         <v>2007</v>
       </c>
@@ -5547,10 +5540,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="51">
         <v>2008</v>
       </c>
@@ -5561,10 +5554,10 @@
         <v>0.128</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
         <v>2009</v>
       </c>
@@ -5578,7 +5571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="51">
         <v>2010</v>
       </c>
@@ -5592,7 +5585,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="51">
         <v>2011</v>
       </c>
@@ -5606,7 +5599,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="51">
         <v>2012</v>
       </c>
@@ -5620,7 +5613,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="51">
         <v>2013</v>
       </c>
@@ -5634,7 +5627,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="51">
         <v>2014</v>
       </c>
@@ -5648,7 +5641,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="51">
         <v>2015</v>
       </c>
@@ -5662,26 +5655,26 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="54">
         <v>2016</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="57">
         <v>0.156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C15" s="45"/>
     </row>
   </sheetData>
@@ -5695,95 +5688,95 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="270" max="270" width="8.42578125" customWidth="1"/>
-    <col min="526" max="526" width="8.42578125" customWidth="1"/>
-    <col min="782" max="782" width="8.42578125" customWidth="1"/>
-    <col min="1038" max="1038" width="8.42578125" customWidth="1"/>
-    <col min="1294" max="1294" width="8.42578125" customWidth="1"/>
-    <col min="1550" max="1550" width="8.42578125" customWidth="1"/>
-    <col min="1806" max="1806" width="8.42578125" customWidth="1"/>
-    <col min="2062" max="2062" width="8.42578125" customWidth="1"/>
-    <col min="2318" max="2318" width="8.42578125" customWidth="1"/>
-    <col min="2574" max="2574" width="8.42578125" customWidth="1"/>
-    <col min="2830" max="2830" width="8.42578125" customWidth="1"/>
-    <col min="3086" max="3086" width="8.42578125" customWidth="1"/>
-    <col min="3342" max="3342" width="8.42578125" customWidth="1"/>
-    <col min="3598" max="3598" width="8.42578125" customWidth="1"/>
-    <col min="3854" max="3854" width="8.42578125" customWidth="1"/>
-    <col min="4110" max="4110" width="8.42578125" customWidth="1"/>
-    <col min="4366" max="4366" width="8.42578125" customWidth="1"/>
-    <col min="4622" max="4622" width="8.42578125" customWidth="1"/>
-    <col min="4878" max="4878" width="8.42578125" customWidth="1"/>
-    <col min="5134" max="5134" width="8.42578125" customWidth="1"/>
-    <col min="5390" max="5390" width="8.42578125" customWidth="1"/>
-    <col min="5646" max="5646" width="8.42578125" customWidth="1"/>
-    <col min="5902" max="5902" width="8.42578125" customWidth="1"/>
-    <col min="6158" max="6158" width="8.42578125" customWidth="1"/>
-    <col min="6414" max="6414" width="8.42578125" customWidth="1"/>
-    <col min="6670" max="6670" width="8.42578125" customWidth="1"/>
-    <col min="6926" max="6926" width="8.42578125" customWidth="1"/>
-    <col min="7182" max="7182" width="8.42578125" customWidth="1"/>
-    <col min="7438" max="7438" width="8.42578125" customWidth="1"/>
-    <col min="7694" max="7694" width="8.42578125" customWidth="1"/>
-    <col min="7950" max="7950" width="8.42578125" customWidth="1"/>
-    <col min="8206" max="8206" width="8.42578125" customWidth="1"/>
-    <col min="8462" max="8462" width="8.42578125" customWidth="1"/>
-    <col min="8718" max="8718" width="8.42578125" customWidth="1"/>
-    <col min="8974" max="8974" width="8.42578125" customWidth="1"/>
-    <col min="9230" max="9230" width="8.42578125" customWidth="1"/>
-    <col min="9486" max="9486" width="8.42578125" customWidth="1"/>
-    <col min="9742" max="9742" width="8.42578125" customWidth="1"/>
-    <col min="9998" max="9998" width="8.42578125" customWidth="1"/>
-    <col min="10254" max="10254" width="8.42578125" customWidth="1"/>
-    <col min="10510" max="10510" width="8.42578125" customWidth="1"/>
-    <col min="10766" max="10766" width="8.42578125" customWidth="1"/>
-    <col min="11022" max="11022" width="8.42578125" customWidth="1"/>
-    <col min="11278" max="11278" width="8.42578125" customWidth="1"/>
-    <col min="11534" max="11534" width="8.42578125" customWidth="1"/>
-    <col min="11790" max="11790" width="8.42578125" customWidth="1"/>
-    <col min="12046" max="12046" width="8.42578125" customWidth="1"/>
-    <col min="12302" max="12302" width="8.42578125" customWidth="1"/>
-    <col min="12558" max="12558" width="8.42578125" customWidth="1"/>
-    <col min="12814" max="12814" width="8.42578125" customWidth="1"/>
-    <col min="13070" max="13070" width="8.42578125" customWidth="1"/>
-    <col min="13326" max="13326" width="8.42578125" customWidth="1"/>
-    <col min="13582" max="13582" width="8.42578125" customWidth="1"/>
-    <col min="13838" max="13838" width="8.42578125" customWidth="1"/>
-    <col min="14094" max="14094" width="8.42578125" customWidth="1"/>
-    <col min="14350" max="14350" width="8.42578125" customWidth="1"/>
-    <col min="14606" max="14606" width="8.42578125" customWidth="1"/>
-    <col min="14862" max="14862" width="8.42578125" customWidth="1"/>
-    <col min="15118" max="15118" width="8.42578125" customWidth="1"/>
-    <col min="15374" max="15374" width="8.42578125" customWidth="1"/>
-    <col min="15630" max="15630" width="8.42578125" customWidth="1"/>
-    <col min="15886" max="15886" width="8.42578125" customWidth="1"/>
-    <col min="16142" max="16142" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.3984375" customWidth="1"/>
+    <col min="270" max="270" width="8.3984375" customWidth="1"/>
+    <col min="526" max="526" width="8.3984375" customWidth="1"/>
+    <col min="782" max="782" width="8.3984375" customWidth="1"/>
+    <col min="1038" max="1038" width="8.3984375" customWidth="1"/>
+    <col min="1294" max="1294" width="8.3984375" customWidth="1"/>
+    <col min="1550" max="1550" width="8.3984375" customWidth="1"/>
+    <col min="1806" max="1806" width="8.3984375" customWidth="1"/>
+    <col min="2062" max="2062" width="8.3984375" customWidth="1"/>
+    <col min="2318" max="2318" width="8.3984375" customWidth="1"/>
+    <col min="2574" max="2574" width="8.3984375" customWidth="1"/>
+    <col min="2830" max="2830" width="8.3984375" customWidth="1"/>
+    <col min="3086" max="3086" width="8.3984375" customWidth="1"/>
+    <col min="3342" max="3342" width="8.3984375" customWidth="1"/>
+    <col min="3598" max="3598" width="8.3984375" customWidth="1"/>
+    <col min="3854" max="3854" width="8.3984375" customWidth="1"/>
+    <col min="4110" max="4110" width="8.3984375" customWidth="1"/>
+    <col min="4366" max="4366" width="8.3984375" customWidth="1"/>
+    <col min="4622" max="4622" width="8.3984375" customWidth="1"/>
+    <col min="4878" max="4878" width="8.3984375" customWidth="1"/>
+    <col min="5134" max="5134" width="8.3984375" customWidth="1"/>
+    <col min="5390" max="5390" width="8.3984375" customWidth="1"/>
+    <col min="5646" max="5646" width="8.3984375" customWidth="1"/>
+    <col min="5902" max="5902" width="8.3984375" customWidth="1"/>
+    <col min="6158" max="6158" width="8.3984375" customWidth="1"/>
+    <col min="6414" max="6414" width="8.3984375" customWidth="1"/>
+    <col min="6670" max="6670" width="8.3984375" customWidth="1"/>
+    <col min="6926" max="6926" width="8.3984375" customWidth="1"/>
+    <col min="7182" max="7182" width="8.3984375" customWidth="1"/>
+    <col min="7438" max="7438" width="8.3984375" customWidth="1"/>
+    <col min="7694" max="7694" width="8.3984375" customWidth="1"/>
+    <col min="7950" max="7950" width="8.3984375" customWidth="1"/>
+    <col min="8206" max="8206" width="8.3984375" customWidth="1"/>
+    <col min="8462" max="8462" width="8.3984375" customWidth="1"/>
+    <col min="8718" max="8718" width="8.3984375" customWidth="1"/>
+    <col min="8974" max="8974" width="8.3984375" customWidth="1"/>
+    <col min="9230" max="9230" width="8.3984375" customWidth="1"/>
+    <col min="9486" max="9486" width="8.3984375" customWidth="1"/>
+    <col min="9742" max="9742" width="8.3984375" customWidth="1"/>
+    <col min="9998" max="9998" width="8.3984375" customWidth="1"/>
+    <col min="10254" max="10254" width="8.3984375" customWidth="1"/>
+    <col min="10510" max="10510" width="8.3984375" customWidth="1"/>
+    <col min="10766" max="10766" width="8.3984375" customWidth="1"/>
+    <col min="11022" max="11022" width="8.3984375" customWidth="1"/>
+    <col min="11278" max="11278" width="8.3984375" customWidth="1"/>
+    <col min="11534" max="11534" width="8.3984375" customWidth="1"/>
+    <col min="11790" max="11790" width="8.3984375" customWidth="1"/>
+    <col min="12046" max="12046" width="8.3984375" customWidth="1"/>
+    <col min="12302" max="12302" width="8.3984375" customWidth="1"/>
+    <col min="12558" max="12558" width="8.3984375" customWidth="1"/>
+    <col min="12814" max="12814" width="8.3984375" customWidth="1"/>
+    <col min="13070" max="13070" width="8.3984375" customWidth="1"/>
+    <col min="13326" max="13326" width="8.3984375" customWidth="1"/>
+    <col min="13582" max="13582" width="8.3984375" customWidth="1"/>
+    <col min="13838" max="13838" width="8.3984375" customWidth="1"/>
+    <col min="14094" max="14094" width="8.3984375" customWidth="1"/>
+    <col min="14350" max="14350" width="8.3984375" customWidth="1"/>
+    <col min="14606" max="14606" width="8.3984375" customWidth="1"/>
+    <col min="14862" max="14862" width="8.3984375" customWidth="1"/>
+    <col min="15118" max="15118" width="8.3984375" customWidth="1"/>
+    <col min="15374" max="15374" width="8.3984375" customWidth="1"/>
+    <col min="15630" max="15630" width="8.3984375" customWidth="1"/>
+    <col min="15886" max="15886" width="8.3984375" customWidth="1"/>
+    <col min="16142" max="16142" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1998</v>
       </c>
@@ -5791,17 +5784,17 @@
         <v>44659</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E2">
         <f>MONTH(C2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1999</v>
       </c>
@@ -5809,17 +5802,17 @@
         <v>45884</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">MONTH(C3)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -5827,17 +5820,17 @@
         <v>43784</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -5845,17 +5838,17 @@
         <v>41419</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -5863,17 +5856,17 @@
         <v>42441</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -5881,17 +5874,17 @@
         <v>42689</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -5899,17 +5892,17 @@
         <v>45597</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -5917,17 +5910,17 @@
         <v>45431</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -5935,17 +5928,17 @@
         <v>50270</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -5953,17 +5946,17 @@
         <v>48615</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -5971,17 +5964,17 @@
         <v>46897</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -5989,17 +5982,17 @@
         <v>46042</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2010</v>
       </c>
@@ -6007,17 +6000,17 @@
         <v>47350</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -6025,17 +6018,17 @@
         <v>45545</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -6043,17 +6036,17 @@
         <v>46846</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -6061,17 +6054,17 @@
         <v>45097</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -6079,17 +6072,17 @@
         <v>45089</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -6097,26 +6090,26 @@
         <v>47358</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="60"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="63" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B21" s="62"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="60" t="s">
         <v>0</v>
       </c>
@@ -6125,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="60" t="s">
         <v>1</v>
       </c>
@@ -6134,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="60" t="s">
         <v>2</v>
       </c>
@@ -6143,28 +6136,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="60" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="60"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="60"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="60"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="60"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="60"/>
     </row>
   </sheetData>
@@ -6174,41 +6167,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="44">
         <f>SUMPRODUCT(CAISO!F15:F18,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6218,15 +6211,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="44">
         <f>SUMPRODUCT(CAISO!F30:F33,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
@@ -6236,15 +6229,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="45">
         <f>ERCOT!D7</f>
@@ -6254,15 +6247,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="45">
         <f>AVERAGE(ERCOT!F29:G29)</f>
@@ -6272,15 +6265,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="46">
         <f>'MISO-Wind'!D13</f>
@@ -6290,15 +6283,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" s="45">
         <v>0.38800000000000001</v>
@@ -6307,110 +6300,160 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C8" s="45">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C9" s="45">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="46">
-        <f>AVERAGE(0.07,0.14)</f>
-        <v>0.10500000000000001</v>
+        <v>109</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0.46</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="45">
-        <v>0.05</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.28000000000000003</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0.38</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.34</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="D13">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0.38</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>105</v>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6423,30 +6466,32 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6454,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6462,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6470,57 +6515,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B6" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"wind",'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"wind",'Wind and Solar Capacity Factors'!$D$2:$D$13,0))</f>
-        <v>0.17157915306838414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
+        <v>0.23074581973505082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$15,'Wind and Solar Capacity Factors'!$A$2:$A$15,"solar PV",'Wind and Solar Capacity Factors'!$D$2:$D$15,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C15,'Wind and Solar Capacity Factors'!$A$2:$A$15,"solar pv",'Wind and Solar Capacity Factors'!$D$2:$D$15,1))</f>
+        <v>0.5900427138981339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"solar PV",'Wind and Solar Capacity Factors'!$D$2:$D$13,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C13,'Wind and Solar Capacity Factors'!$A$2:$A$13,"solar pv",'Wind and Solar Capacity Factors'!$D$2:$D$13,1))</f>
-        <v>0.5900427138981339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -6528,23 +6573,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B13" s="4">
         <f>B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B14" s="4">
-        <f>B6</f>
-        <v>0.17157915306838414</v>
-      </c>
+        <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
+        <v>0.35666666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C16" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
   <si>
     <t>June</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>PTCF Peak Time Capacity Factors</t>
-  </si>
-  <si>
-    <t>Peak Time Capacity Factors</t>
   </si>
   <si>
     <t>Non-Dispatchable Solar, Wind, Biomass, Cogeneration, Geothermal, and</t>
@@ -927,6 +924,18 @@
   </si>
   <si>
     <t>Figure 5</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Peak Time Capacity Factors (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -1395,9 +1404,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1494,6 +1500,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1518,12 +1530,9 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="6"/>
@@ -2097,9 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2119,27 +2126,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -2155,57 +2162,57 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H9" s="72"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="73"/>
+        <v>103</v>
+      </c>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="74"/>
+        <v>104</v>
+      </c>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
@@ -2214,55 +2221,55 @@
       <c r="E12" s="3">
         <v>2015</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="74"/>
+        <v>105</v>
+      </c>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="74"/>
+        <v>106</v>
+      </c>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="74"/>
+        <v>107</v>
+      </c>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H16" s="72"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="73"/>
+        <v>114</v>
+      </c>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="74"/>
+        <v>115</v>
+      </c>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
@@ -2271,34 +2278,34 @@
       <c r="E19" s="3">
         <v>2015</v>
       </c>
-      <c r="H19" s="74"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="74"/>
+        <v>116</v>
+      </c>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="72"/>
+        <v>117</v>
+      </c>
+      <c r="H21" s="63"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="74"/>
+        <v>118</v>
+      </c>
+      <c r="H22" s="65"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -2306,13 +2313,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="58" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="59" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2340,70 +2347,70 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="43" t="s">
-        <v>66</v>
-      </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2688,24 +2695,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
-        <v>79</v>
+      <c r="A3" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>80</v>
+      <c r="A5" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2722,232 +2729,232 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2012</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>2013</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2014</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>81</v>
+      <c r="F9" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>6.6786794392025761E-3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>3.4470377065202533E-3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>2.4175681587634374E-3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>4.1810951014954224E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.14075966808466012</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>8.0968671106513811E-3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1.3834627678267139E-2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>5.423038762452622E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.31549427006082104</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>8.0136847257800833E-2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>7.7800967688902573E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>0.15781069500250813</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0.88419650701971964</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>0.73853867728318379</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.75736725725022902</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>0.79336748051771089</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.90474750575633855</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.60614999890437538</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.65578632363979716</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0.72222794276683711</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>6</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1.0024753510378552</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>0.9292652381143317</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.99173738116451271</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>0.97449265677223329</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>7</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.99184789801807771</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.82618678988741034</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.87654886886404171</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>0.89819451892317659</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>8</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>0.93988168467479172</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.92546725077233793</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0.94291984445058086</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.9360895932992368</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>9</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.91438774508495246</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>0.87716864652066284</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.89562720254360906</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.8957278647164082</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>10</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>0.44366500376526585</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>0.5178017168700777</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0.48692101169594587</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.48279591077709649</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>11</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>1.8659992665191508E-3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>2.1401617818904203E-3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>4.1058636255429616E-3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>2.7040082246508439E-3</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>12</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>6.1984832574650027E-3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>1.099064265654377E-3</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>2.1671710848538469E-3</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>3.1549062026577424E-3</v>
       </c>
     </row>
@@ -2957,232 +2964,232 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11">
         <v>2012</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>2013</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>2014</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>82</v>
+      <c r="F24" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>5.67931471736366E-2</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>3.0922299454740017E-2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>2.6252134716526401E-2</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>3.7989193781634338E-2</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>2</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>0.12156522944858375</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>4.8310126071632681E-2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>0.18940696900774709</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>0.1197607748426545</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>3</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>0.19837166443230625</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>0.2224705205455218</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>0.17503577867166048</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>0.19862598788316285</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>9.029040348063147E-2</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <v>0.28355395479851137</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>0.17920542587437585</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>0.1843499280511729</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>0.26379942666028688</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <v>0.32833356898066729</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>0.33943006590124186</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>0.31052102051406538</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>6</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>0.25125466509992067</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="14">
         <v>0.27169288962167554</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>0.31017746969161764</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>0.27770834147107132</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>7</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>0.13158640464972718</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>0.1934086140070935</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>0.19370994529130861</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>0.17290165464937643</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>8</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>0.12480941530171059</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="14">
         <v>0.18016328781071336</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>0.16672092593321353</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <v>0.15723120968187917</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>9</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>6.1937791918896964E-2</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>0.15995690361579767</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>9.8606723621791847E-2</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>0.1068338063854955</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>10</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>7.6543365480177372E-2</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>8.2856886967446475E-2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>5.8382044389294153E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <v>7.2594098945639327E-2</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>11</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>2.7129275870748568E-2</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>2.581843690279487E-2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>4.3812029424619883E-2</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <v>3.2253247399387779E-2</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>12</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>9.6523574344487592E-2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>2.7598088685011946E-2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>4.2283080439706633E-2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <v>5.5468247823068723E-2</v>
       </c>
     </row>
@@ -3242,232 +3249,232 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="11">
         <v>2012</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>2013</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>2014</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>83</v>
+      <c r="F49" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>1</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>0.78914394761179796</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>0.72652568507298765</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>0.7169731860410884</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="14">
         <v>0.74421427290862463</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>2</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="14">
         <v>0.78990162321663326</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>0.67989494936578077</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>0.67554186555630269</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <v>0.7151128127129055</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="14">
         <v>0.76673176430390066</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>0.72084981249541125</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>0.72322427744339712</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="14">
         <v>0.73693528474756975</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>4</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="14">
         <v>0.59666236618488733</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>0.60536303749007647</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>0.65031095916007975</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="14">
         <v>0.61744545427834785</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>5</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>0.67460788023810536</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>0.67523554522601592</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>0.62661262792300443</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="14">
         <v>0.65881868446237524</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>6</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="14">
         <v>0.71637360396826022</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>0.73702729865201611</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>0.76979821999921749</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <v>0.7410663742064979</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>7</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="14">
         <v>0.7659752139642968</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>0.74295011177204295</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>0.77263289210923758</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="14">
         <v>0.76051940594852585</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>8</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>0.76400364710975077</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>0.76538994670800786</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>0.76642296169804469</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <v>0.76527218517193452</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>9</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>0.76834877952581648</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>0.71134278706207754</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>0.76536734756483848</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="14">
         <v>0.74835297138424417</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>10</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>0.71430906558923946</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>0.70365872033757904</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>0.72055260274951083</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="14">
         <v>0.7128401295587764</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>11</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>0.67958381589902017</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>0.68933879112439878</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>0.69156839008489934</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="14">
         <v>0.68683033236943947</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>12</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>0.72606054308099366</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>0.72501434516667362</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>0.70465675112343162</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="14">
         <v>0.71857721312369949</v>
       </c>
     </row>
@@ -3477,232 +3484,232 @@
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B63" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="B63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="12">
+      <c r="B64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="11">
         <v>2012</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>2013</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>2014</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>84</v>
+      <c r="F64" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>1</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="18">
         <v>0.62429783760197244</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <v>0.54797476815580948</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="18">
         <v>0.57348093284205004</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="14">
         <v>0.58191784619994402</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>2</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="18">
         <v>0.63229970640953959</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>0.56452088805894596</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="18">
         <v>0.555263854814665</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="14">
         <v>0.58402814976105022</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>3</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="18">
         <v>0.59958829083344745</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>0.47966599360252282</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="18">
         <v>0.52023435428225284</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="14">
         <v>0.53316287957274111</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>4</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="18">
         <v>0.57095785254064568</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <v>0.45964878463933184</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="18">
         <v>0.52630955807514035</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="14">
         <v>0.51897206508503935</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>5</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="18">
         <v>0.59380013929656161</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="18">
         <v>0.53204756023805133</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="18">
         <v>0.53296138627105549</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="14">
         <v>0.55293636193522289</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>6</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="18">
         <v>0.70717999892450345</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>0.62505073310286652</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="18">
         <v>0.63629160137578733</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="14">
         <v>0.65617411113438573</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>7</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="18">
         <v>0.70697763092949795</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <v>0.64017371920233612</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="18">
         <v>0.66115017681536992</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="14">
         <v>0.66943384231573466</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>8</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="18">
         <v>0.72195394089568721</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>0.61274684426298298</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="18">
         <v>0.63776990438189374</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="14">
         <v>0.65749022984685468</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>9</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="18">
         <v>0.70182916059829237</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="18">
         <v>0.60658857094648211</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73" s="18">
         <v>0.61571319927406665</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="14">
         <v>0.64137697693961371</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>10</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="18">
         <v>0.60502712166321349</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>0.50444609174798027</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="18">
         <v>0.53461862084690004</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="14">
         <v>0.5480306114193646</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>11</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="18">
         <v>0.58804907586306909</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>0.53438532870775712</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="18">
         <v>0.53570763397055243</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="14">
         <v>0.55271401284712629</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>12</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="18">
         <v>0.61626026651385413</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>0.54738046545313201</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="18">
         <v>0.5604493761718109</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="14">
         <v>0.57469670271293227</v>
       </c>
     </row>
@@ -3787,232 +3794,232 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B94" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="12">
+      <c r="B94" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="11">
         <v>2012</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="11">
         <v>2013</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>2014</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>85</v>
+      <c r="F94" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <v>1</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="14">
         <v>0.86065615190249256</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="14">
         <v>0.85566619730138416</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="14">
         <v>0.82265554869969182</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F95" s="14">
         <v>0.84632596596785614</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>2</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>0.86651325141233615</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>0.8552487109376532</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="14">
         <v>0.82487930665893094</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96" s="14">
         <v>0.84888042300297339</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <v>3</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>0.8418298714398007</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="14">
         <v>0.83799310231744129</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="14">
         <v>0.80636568305825396</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97" s="14">
         <v>0.82872955227183198</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>4</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>0.84020359420201018</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="14">
         <v>0.76081020303812674</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="14">
         <v>0.81197140152666913</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F98" s="14">
         <v>0.80432839958893532</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>5</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>0.84106830233005592</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="14">
         <v>0.77718730993051366</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="14">
         <v>0.80578451558452546</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F99" s="14">
         <v>0.80801337594836509</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>6</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="14">
         <v>0.81591796172147069</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>0.77296929134511261</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="14">
         <v>0.76283846881029305</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F100" s="14">
         <v>0.78390857395895885</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>7</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="14">
         <v>0.83237122086889292</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="14">
         <v>0.79353397839456496</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="14">
         <v>0.76659725132089063</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101" s="14">
         <v>0.79750081686144947</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <v>8</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>0.82003443972265466</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="14">
         <v>0.78812193077663684</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="14">
         <v>0.76928536471247866</v>
       </c>
-      <c r="F102" s="15">
+      <c r="F102" s="14">
         <v>0.79248057840392327</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <v>9</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="14">
         <v>0.83408762930199343</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="14">
         <v>0.78948410613379671</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="14">
         <v>0.7642403781598035</v>
       </c>
-      <c r="F103" s="15">
+      <c r="F103" s="14">
         <v>0.79593737119853125</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B104" s="14">
+      <c r="B104" s="13">
         <v>10</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="14">
         <v>0.85102057409854959</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="14">
         <v>0.80103842734639186</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="14">
         <v>0.77817305316262075</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104" s="14">
         <v>0.81007735153585403</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <v>11</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="14">
         <v>0.8605116507851085</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="14">
         <v>0.81290833347543778</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="14">
         <v>0.81127935876716617</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="14">
         <v>0.82823311434257085</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B106" s="14">
+      <c r="B106" s="13">
         <v>12</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="14">
         <v>0.85925425576550729</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="14">
         <v>0.85159772834910119</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="14">
         <v>0.78778121965197578</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="14">
         <v>0.83287773458886127</v>
       </c>
     </row>
@@ -4022,232 +4029,232 @@
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B108" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
+      <c r="B108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B109" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="12">
+      <c r="B109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="11">
         <v>2012</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="11">
         <v>2013</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="11">
         <v>2014</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>86</v>
+      <c r="F109" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B110" s="14">
+      <c r="B110" s="13">
         <v>1</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="14">
         <v>0.31304957834729791</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="14">
         <v>0.41568793097668005</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="14">
         <v>0.22520842385840736</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F110" s="14">
         <v>0.31798197772746178</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <v>2</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="14">
         <v>0.28394368537324099</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="14">
         <v>0.3847117151680759</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="14">
         <v>0.21350459561581442</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="14">
         <v>0.2940533320523771</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B112" s="14">
+      <c r="B112" s="13">
         <v>3</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="14">
         <v>0.32435968876317567</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="14">
         <v>0.39937088689376371</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="14">
         <v>0.2346517572660281</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112" s="14">
         <v>0.31946077764098918</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B113" s="14">
+      <c r="B113" s="13">
         <v>4</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="14">
         <v>0.38295925734971531</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="14">
         <v>0.35713137586048066</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="14">
         <v>0.25308280084977158</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="14">
         <v>0.33105781135332252</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B114" s="14">
+      <c r="B114" s="13">
         <v>5</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="14">
         <v>0.57823152438311276</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <v>0.45265700250135504</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="14">
         <v>0.37008359855516521</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F114" s="14">
         <v>0.46699070847987767</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B115" s="14">
+      <c r="B115" s="13">
         <v>6</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="14">
         <v>0.58135895896457424</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="14">
         <v>0.50601158080666708</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="14">
         <v>0.43169780961681387</v>
       </c>
-      <c r="F115" s="15">
+      <c r="F115" s="14">
         <v>0.50635611646268508</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B116" s="14">
+      <c r="B116" s="13">
         <v>7</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="14">
         <v>0.59492916407292451</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="14">
         <v>0.57248890991701906</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="14">
         <v>0.47984086310275936</v>
       </c>
-      <c r="F116" s="15">
+      <c r="F116" s="14">
         <v>0.54908631236423433</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B117" s="14">
+      <c r="B117" s="13">
         <v>8</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="14">
         <v>0.55625820815349103</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="14">
         <v>0.51858324406108469</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="14">
         <v>0.41446397431929871</v>
       </c>
-      <c r="F117" s="15">
+      <c r="F117" s="14">
         <v>0.49643514217795809</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B118" s="14">
+      <c r="B118" s="13">
         <v>9</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="14">
         <v>0.48541730631214575</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="14">
         <v>0.41228979693464229</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E118" s="14">
         <v>0.32032375097429416</v>
       </c>
-      <c r="F118" s="15">
+      <c r="F118" s="14">
         <v>0.40601028474036077</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B119" s="14">
+      <c r="B119" s="13">
         <v>10</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="14">
         <v>0.33492172012671306</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="14">
         <v>0.27352322817215413</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E119" s="14">
         <v>0.19934607615496874</v>
       </c>
-      <c r="F119" s="15">
+      <c r="F119" s="14">
         <v>0.26926367481794533</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B120" s="14">
+      <c r="B120" s="13">
         <v>11</v>
       </c>
-      <c r="C120" s="15">
+      <c r="C120" s="14">
         <v>0.35458213768939406</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="14">
         <v>0.30170535542827531</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="14">
         <v>0.19535371794250336</v>
       </c>
-      <c r="F120" s="15">
+      <c r="F120" s="14">
         <v>0.28388040368672424</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B121" s="14">
+      <c r="B121" s="13">
         <v>12</v>
       </c>
-      <c r="C121" s="15">
+      <c r="C121" s="14">
         <v>0.36854029532706384</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="14">
         <v>0.23780919250785362</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="14">
         <v>0.2907812044095332</v>
       </c>
-      <c r="F121" s="15">
+      <c r="F121" s="14">
         <v>0.29904356408148353</v>
       </c>
     </row>
@@ -4267,248 +4274,248 @@
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="20" t="s">
-        <v>27</v>
+      <c r="A125" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="20" t="s">
-        <v>28</v>
+      <c r="A126" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
     <row r="138" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
     </row>
     <row r="139" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B139" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="12">
+      <c r="B139" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="11">
         <v>2012</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="11">
         <v>2013</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E139" s="11">
         <v>2014</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>87</v>
+      <c r="F139" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B140" s="14">
+      <c r="B140" s="13">
         <v>1</v>
       </c>
-      <c r="C140" s="15">
+      <c r="C140" s="14">
         <v>2.6380450139804508E-3</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D140" s="14">
         <v>1.9597963280620022E-3</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="14">
         <v>2.7425070926636983E-3</v>
       </c>
-      <c r="F140" s="15">
+      <c r="F140" s="14">
         <v>2.446782811568717E-3</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B141" s="14">
+      <c r="B141" s="13">
         <v>2</v>
       </c>
-      <c r="C141" s="15">
+      <c r="C141" s="14">
         <v>1.088788424688719E-2</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D141" s="14">
         <v>6.0324476185525484E-3</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E141" s="14">
         <v>2.0795334418142627E-2</v>
       </c>
-      <c r="F141" s="15">
+      <c r="F141" s="14">
         <v>1.257188876119412E-2</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B142" s="14">
+      <c r="B142" s="13">
         <v>3</v>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="14">
         <v>3.8111323660363128E-2</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="14">
         <v>6.8935273013491685E-2</v>
       </c>
-      <c r="E142" s="15">
+      <c r="E142" s="14">
         <v>7.9741274537927662E-2</v>
       </c>
-      <c r="F142" s="15">
+      <c r="F142" s="14">
         <v>6.2262623737260825E-2</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B143" s="14">
+      <c r="B143" s="13">
         <v>4</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="14">
         <v>0.59373871808324385</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="14">
         <v>0.73512974812849075</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E143" s="14">
         <v>0.82138908740251682</v>
       </c>
-      <c r="F143" s="15">
+      <c r="F143" s="14">
         <v>0.71675251787141703</v>
       </c>
     </row>
     <row r="144" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B144" s="14">
+      <c r="B144" s="13">
         <v>5</v>
       </c>
-      <c r="C144" s="15">
+      <c r="C144" s="14">
         <v>0.72584116191575054</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="14">
         <v>0.66629417562598159</v>
       </c>
-      <c r="E144" s="15">
+      <c r="E144" s="14">
         <v>0.8269994739947103</v>
       </c>
-      <c r="F144" s="15">
+      <c r="F144" s="14">
         <v>0.73971160384548085</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B145" s="14">
+      <c r="B145" s="13">
         <v>6</v>
       </c>
-      <c r="C145" s="15">
+      <c r="C145" s="14">
         <v>0.67881073372892353</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="14">
         <v>0.74632489453726292</v>
       </c>
-      <c r="E145" s="15">
+      <c r="E145" s="14">
         <v>0.84498722000850057</v>
       </c>
-      <c r="F145" s="15">
+      <c r="F145" s="14">
         <v>0.75670761609156234</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B146" s="14">
+      <c r="B146" s="13">
         <v>7</v>
       </c>
-      <c r="C146" s="15">
+      <c r="C146" s="14">
         <v>0.62580121291009061</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="14">
         <v>0.64797525608436435</v>
       </c>
-      <c r="E146" s="15">
+      <c r="E146" s="14">
         <v>0.79923951378276492</v>
       </c>
-      <c r="F146" s="15">
+      <c r="F146" s="14">
         <v>0.69100532759240663</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B147" s="14">
+      <c r="B147" s="13">
         <v>8</v>
       </c>
-      <c r="C147" s="15">
+      <c r="C147" s="14">
         <v>0.49065308975459804</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="14">
         <v>0.7738832173245328</v>
       </c>
-      <c r="E147" s="15">
+      <c r="E147" s="14">
         <v>0.81261002818632699</v>
       </c>
-      <c r="F147" s="15">
+      <c r="F147" s="14">
         <v>0.69238211175515263</v>
       </c>
     </row>
     <row r="148" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B148" s="14">
+      <c r="B148" s="13">
         <v>9</v>
       </c>
-      <c r="C148" s="15">
+      <c r="C148" s="14">
         <v>0.55062082602250872</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="14">
         <v>0.79226697686969749</v>
       </c>
-      <c r="E148" s="15">
+      <c r="E148" s="14">
         <v>0.77049986454234709</v>
       </c>
-      <c r="F148" s="15">
+      <c r="F148" s="14">
         <v>0.70446255581151773</v>
       </c>
     </row>
     <row r="149" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B149" s="14">
+      <c r="B149" s="13">
         <v>10</v>
       </c>
-      <c r="C149" s="15">
+      <c r="C149" s="14">
         <v>0.44238381742351135</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="14">
         <v>0.62052768907532985</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E149" s="14">
         <v>0.60470717145278563</v>
       </c>
-      <c r="F149" s="15">
+      <c r="F149" s="14">
         <v>0.55587289265054229</v>
       </c>
     </row>
     <row r="150" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B150" s="14">
+      <c r="B150" s="13">
         <v>11</v>
       </c>
-      <c r="C150" s="15">
+      <c r="C150" s="14">
         <v>1.2179526237671751E-3</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="14">
         <v>1.5029658999444943E-3</v>
       </c>
-      <c r="E150" s="15">
+      <c r="E150" s="14">
         <v>1.5278880652394959E-3</v>
       </c>
-      <c r="F150" s="15">
+      <c r="F150" s="14">
         <v>1.4162688629837219E-3</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B151" s="14">
+      <c r="B151" s="13">
         <v>12</v>
       </c>
-      <c r="C151" s="15">
+      <c r="C151" s="14">
         <v>9.2073149482054678E-4</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="14">
         <v>1.2799576286342033E-3</v>
       </c>
-      <c r="E151" s="15">
+      <c r="E151" s="14">
         <v>9.6300510050755374E-4</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151" s="14">
         <v>1.0545647413207678E-3</v>
       </c>
     </row>
@@ -4660,801 +4667,801 @@
     <col min="16130" max="16130" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
-      <c r="B4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="33"/>
+      <c r="B6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="34"/>
-      <c r="B6" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.83399845655972893</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.80359496996079149</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="33"/>
+      <c r="B8" s="37">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.798165978915654</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
+      <c r="B9" s="37">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.77862047440699134</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="33"/>
+      <c r="B10" s="37">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0.80243445692883919</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="33"/>
+      <c r="B12" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="33"/>
+      <c r="B13" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="33"/>
+      <c r="B15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="38">
+        <v>4.6371825985489279E-2</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5.4565121290274986E-2</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="38">
+        <v>2.8303562854124657E-2</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="33"/>
+      <c r="B17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="38">
+        <v>8.9019975031211007E-2</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="33"/>
+      <c r="B19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="33"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="33"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="33"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="24"/>
+      <c r="B27" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="24"/>
+      <c r="B28" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="24"/>
+      <c r="B29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="32">
+        <v>0.1210804905238213</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.55392698560703557</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21">
         <v>2015</v>
       </c>
-      <c r="C7" s="39">
-        <v>0.83399845655972893</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.80359496996079149</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
-      <c r="B8" s="38">
+      <c r="C30" s="30">
+        <v>0.11180028278147171</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0.52026024770856394</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21">
         <v>2014</v>
       </c>
-      <c r="C8" s="39">
-        <v>0.798165978915654</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38">
+      <c r="C31" s="30">
+        <v>0.19988932475496016</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.60036662915372685</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="32">
+        <v>0.19649336395482506</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.35251353467624585</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="24"/>
+      <c r="B32" s="21">
         <v>2013</v>
       </c>
-      <c r="C9" s="39">
-        <v>0.77862047440699134</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38">
+      <c r="C32" s="30">
+        <v>0.1255994282459402</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.76613110708566334</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21">
         <v>2012</v>
       </c>
-      <c r="C10" s="39">
-        <v>0.80243445692883919</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="39">
-        <v>4.6371825985489279E-2</v>
-      </c>
-      <c r="D15" s="39">
-        <v>5.4565121290274986E-2</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="39">
-        <v>2.8303562854124657E-2</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="39">
-        <v>8.9019975031211007E-2</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="34"/>
-      <c r="B20" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="34"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="25"/>
-      <c r="B27" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27" t="s">
+      <c r="C33" s="30">
+        <v>8.0957524680000795E-2</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0.52841491622905723</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="24"/>
+      <c r="B34" s="21">
+        <v>2011</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.12737346586837076</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0.65962836786935797</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="24"/>
+      <c r="B35" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C35" s="30">
+        <v>6.0149602802830902E-2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0.24876064559584415</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="24"/>
+      <c r="B36" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.14179380453317461</v>
+      </c>
+      <c r="D36" s="31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="24"/>
+      <c r="B38" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="24"/>
+      <c r="B39" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="25"/>
-      <c r="B28" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="29" t="s">
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="24"/>
+      <c r="B40" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="33">
-        <v>0.1210804905238213</v>
-      </c>
-      <c r="G29" s="33">
-        <v>0.55392698560703557</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22">
-        <v>2015</v>
-      </c>
-      <c r="C30" s="31">
-        <v>0.11180028278147171</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0.52026024770856394</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22">
-        <v>2014</v>
-      </c>
-      <c r="C31" s="31">
-        <v>0.19988932475496016</v>
-      </c>
-      <c r="D31" s="31">
-        <v>0.60036662915372685</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="33">
-        <v>0.19649336395482506</v>
-      </c>
-      <c r="G31" s="33">
-        <v>0.35251353467624585</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22">
-        <v>2013</v>
-      </c>
-      <c r="C32" s="31">
-        <v>0.1255994282459402</v>
-      </c>
-      <c r="D32" s="31">
-        <v>0.76613110708566334</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22">
-        <v>2012</v>
-      </c>
-      <c r="C33" s="31">
-        <v>8.0957524680000795E-2</v>
-      </c>
-      <c r="D33" s="31">
-        <v>0.52841491622905723</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22">
-        <v>2011</v>
-      </c>
-      <c r="C34" s="31">
-        <v>0.12737346586837076</v>
-      </c>
-      <c r="D34" s="31">
-        <v>0.65962836786935797</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22">
-        <v>2010</v>
-      </c>
-      <c r="C35" s="31">
-        <v>6.0149602802830902E-2</v>
-      </c>
-      <c r="D35" s="31">
-        <v>0.24876064559584415</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22">
-        <v>2009</v>
-      </c>
-      <c r="C36" s="31">
-        <v>0.14179380453317461</v>
-      </c>
-      <c r="D36" s="32" t="e">
+      <c r="E40" s="24"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="24"/>
+      <c r="B41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.29543103200053838</v>
+      </c>
+      <c r="D41" s="30">
+        <v>0.2701657716118599</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="24"/>
+      <c r="B42" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0.11364289283734244</v>
+      </c>
+      <c r="D42" s="30">
+        <v>0.42284951901881168</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="24"/>
+      <c r="B43" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="30">
+        <v>0.17482997682332424</v>
+      </c>
+      <c r="D43" s="30">
+        <v>0.4366005309436829</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="24"/>
+      <c r="B44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0.17005799552891365</v>
+      </c>
+      <c r="D44" s="30">
+        <v>0.32465499187296826</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="24"/>
+      <c r="B45" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="30">
+        <v>0.2053475719253573</v>
+      </c>
+      <c r="D45" s="30">
+        <v>0.15738835824145475</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="24"/>
+      <c r="B46" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="30">
+        <v>0.23759799236782317</v>
+      </c>
+      <c r="D46" s="30">
+        <v>0.50342203636869765</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="24"/>
+      <c r="B47" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0.17854608620047629</v>
+      </c>
+      <c r="D47" s="31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="25"/>
-      <c r="B38" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="25"/>
-      <c r="B40" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="31">
-        <v>0.29543103200053838</v>
-      </c>
-      <c r="D41" s="31">
-        <v>0.2701657716118599</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="31">
-        <v>0.11364289283734244</v>
-      </c>
-      <c r="D42" s="31">
-        <v>0.42284951901881168</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="31">
-        <v>0.17482997682332424</v>
-      </c>
-      <c r="D43" s="31">
-        <v>0.4366005309436829</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="31">
-        <v>0.17005799552891365</v>
-      </c>
-      <c r="D44" s="31">
-        <v>0.32465499187296826</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45" s="25"/>
-      <c r="B45" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="31">
-        <v>0.2053475719253573</v>
-      </c>
-      <c r="D45" s="31">
-        <v>0.15738835824145475</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="B46" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="31">
-        <v>0.23759799236782317</v>
-      </c>
-      <c r="D46" s="31">
-        <v>0.50342203636869765</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="31">
-        <v>0.17854608620047629</v>
-      </c>
-      <c r="D47" s="32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5488,194 +5495,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="50" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="50">
+        <v>2005</v>
+      </c>
+      <c r="B2" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="46">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="51">
-        <v>2005</v>
-      </c>
-      <c r="B2" s="47">
-        <v>0.8</v>
-      </c>
-      <c r="C2" s="47">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D2" s="58" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="50">
+        <v>2006</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="50">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="46">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="50">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="46">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.128</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="50">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="46">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="50">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="46">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.189</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="50">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="46">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="50">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.122</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="50">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0.13</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.224</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="50">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="50">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.122</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="53">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="51">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="47">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C3" s="47">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="51">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0.02</v>
-      </c>
-      <c r="C4" s="47">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="51">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="47">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C5" s="47">
-        <v>0.128</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0.06</v>
-      </c>
-      <c r="C6" s="47">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D6" s="52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="51">
-        <v>2010</v>
-      </c>
-      <c r="B7" s="47">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C7" s="47">
-        <v>0.189</v>
-      </c>
-      <c r="D7" s="52">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="51">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="47">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="C8" s="47">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D8" s="52">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="51">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="47">
-        <v>0.122</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="52">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="51">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="47">
-        <v>0.13</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0.224</v>
-      </c>
-      <c r="D10" s="52">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="51">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="47">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0.16</v>
-      </c>
-      <c r="D11" s="52">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="51">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="47">
-        <v>0.122</v>
-      </c>
-      <c r="C12" s="47">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D12" s="53">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="54">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>0.156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C15" s="45"/>
+      <c r="C15" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5760,20 +5767,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>23</v>
+      <c r="E1" s="61" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5784,10 +5791,10 @@
         <v>44659</v>
       </c>
       <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
       </c>
       <c r="E2">
         <f>MONTH(C2)</f>
@@ -5802,10 +5809,10 @@
         <v>45884</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">MONTH(C3)</f>
@@ -5820,10 +5827,10 @@
         <v>43784</v>
       </c>
       <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
         <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -5838,10 +5845,10 @@
         <v>41419</v>
       </c>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -5856,10 +5863,10 @@
         <v>42441</v>
       </c>
       <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>147</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -5874,10 +5881,10 @@
         <v>42689</v>
       </c>
       <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -5892,10 +5899,10 @@
         <v>45597</v>
       </c>
       <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -5910,10 +5917,10 @@
         <v>45431</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -5928,10 +5935,10 @@
         <v>50270</v>
       </c>
       <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
         <v>153</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -5946,10 +5953,10 @@
         <v>48615</v>
       </c>
       <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
         <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -5964,10 +5971,10 @@
         <v>46897</v>
       </c>
       <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
         <v>157</v>
-      </c>
-      <c r="D12" t="s">
-        <v>158</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -5982,10 +5989,10 @@
         <v>46042</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -6000,10 +6007,10 @@
         <v>47350</v>
       </c>
       <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" t="s">
         <v>160</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -6018,10 +6025,10 @@
         <v>45545</v>
       </c>
       <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
         <v>162</v>
-      </c>
-      <c r="D15" t="s">
-        <v>163</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -6036,10 +6043,10 @@
         <v>46846</v>
       </c>
       <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
         <v>164</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -6054,10 +6061,10 @@
         <v>45097</v>
       </c>
       <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
         <v>166</v>
-      </c>
-      <c r="D17" t="s">
-        <v>167</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -6072,10 +6079,10 @@
         <v>45089</v>
       </c>
       <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>169</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -6090,10 +6097,10 @@
         <v>47358</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -6101,16 +6108,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="62"/>
+      <c r="A21" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="61"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -6119,7 +6126,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B23">
@@ -6128,7 +6135,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B24">
@@ -6137,8 +6144,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="60" t="s">
-        <v>132</v>
+      <c r="A25" s="59" t="s">
+        <v>131</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -6146,19 +6153,19 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="60"/>
+      <c r="A27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="60"/>
+      <c r="A28" s="59"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="60"/>
+      <c r="A29" s="59"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="60"/>
+      <c r="A30" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6181,19 +6188,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6201,9 +6208,9 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="44">
+        <v>66</v>
+      </c>
+      <c r="C2" s="43">
         <f>SUMPRODUCT(CAISO!F15:F18,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
         <v>0.91861859952987834</v>
       </c>
@@ -6211,17 +6218,17 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="44">
+        <v>66</v>
+      </c>
+      <c r="C3" s="43">
         <f>SUMPRODUCT(CAISO!F30:F33,'CAISO - Peak'!B22:B25)/SUM('CAISO - Peak'!B22:B25)</f>
         <v>0.16097118034487651</v>
       </c>
@@ -6229,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6237,9 +6244,9 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="45">
+        <v>67</v>
+      </c>
+      <c r="C4" s="44">
         <f>ERCOT!D7</f>
         <v>0.80359496996079149</v>
       </c>
@@ -6247,17 +6254,17 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="45">
+        <v>67</v>
+      </c>
+      <c r="C5" s="44">
         <f>AVERAGE(ERCOT!F29:G29)</f>
         <v>0.33750373806542844</v>
       </c>
@@ -6265,17 +6272,17 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="46">
+        <v>62</v>
+      </c>
+      <c r="C6" s="45">
         <f>'MISO-Wind'!D13</f>
         <v>0.156</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -6291,50 +6298,50 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="45">
+        <v>102</v>
+      </c>
+      <c r="C7" s="44">
         <v>0.38800000000000001</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="45">
+        <v>102</v>
+      </c>
+      <c r="C8" s="44">
         <v>0.19</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="45">
+        <v>102</v>
+      </c>
+      <c r="C9" s="44">
         <v>0.4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -6342,67 +6349,67 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="45">
+        <v>108</v>
+      </c>
+      <c r="C10" s="44">
         <v>0.46</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="46">
+        <v>108</v>
+      </c>
+      <c r="C11" s="45">
         <v>0.28000000000000003</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="46">
+        <v>108</v>
+      </c>
+      <c r="C12" s="45">
         <v>0.34</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="45">
+        <v>113</v>
+      </c>
+      <c r="C13" s="44">
         <v>0.05</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -6410,50 +6417,50 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="45">
+        <v>119</v>
+      </c>
+      <c r="C14" s="44">
         <v>0.38</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="45">
+        <v>119</v>
+      </c>
+      <c r="C15" s="44">
         <v>0.26</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="45">
+        <v>119</v>
+      </c>
+      <c r="C16" s="44">
         <v>0.33</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6466,10 +6473,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6478,14 +6485,14 @@
     <col min="2" max="2" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B1" s="5" t="s">
-        <v>20</v>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="75" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -6517,7 +6524,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="4">
         <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"onshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
@@ -6575,7 +6582,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="4">
         <f>B2</f>
@@ -6584,15 +6591,40 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="4">
         <f>IF(About!$A$51="Summer",AVERAGEIFS('Wind and Solar Capacity Factors'!$C$2:$C$16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,1),AVERAGEIFS('Wind and Solar Capacity Factors'!C2:C16,'Wind and Solar Capacity Factors'!$A$2:$A$16,"offshore wind",'Wind and Solar Capacity Factors'!$D$2:$D$16,0))</f>
         <v>0.35666666666666669</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C16" s="45"/>
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="44"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B9</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79A5D4-BF60-4771-8BDA-168523BDC334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="405" windowWidth="24750" windowHeight="16080"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Submittal">[3]Lists!$A$2:$A$3</definedName>
     <definedName name="Zone">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,6 +54,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="218">
   <si>
     <t>June</t>
   </si>
@@ -708,12 +711,18 @@
   </si>
   <si>
     <t>winter</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1482,14 +1491,20 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1509,6 +1524,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1525,15 +1543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,19 +1563,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Body: normal cell" xfId="6"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="10"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Parent row" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="12"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Percent 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1973,28 +1982,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.265625" customWidth="1"/>
-    <col min="2" max="2" width="50.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.59765625" customWidth="1"/>
-    <col min="8" max="8" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>124</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>125</v>
       </c>
@@ -2052,15 +2061,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2080,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2019</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>168</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>166</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>167</v>
       </c>
@@ -2126,10 +2135,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>2015</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -2195,17 +2204,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>207</v>
       </c>
@@ -2229,57 +2238,57 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="H29" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Summer, Winter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf"/>
-    <hyperlink ref="E21" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://cdn.misoenergy.org/2020 Wind &amp; Solar Capacity Credit Report408144.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://www.spp.org/documents/61025/elcc solar and wind accreditation.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -2287,14 +2296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>176</v>
       </c>
@@ -2340,7 +2349,7 @@
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="149" t="s">
@@ -2386,7 +2395,7 @@
       <c r="AM2" s="149"/>
       <c r="AN2" s="149"/>
     </row>
-    <row r="3" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -2504,7 +2513,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="150" t="s">
         <v>67</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>250948</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="150"/>
       <c r="B5" s="24" t="s">
         <v>69</v>
@@ -2746,7 +2755,7 @@
         <v>274420</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="21.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A6" s="150"/>
       <c r="B6" s="24" t="s">
         <v>70</v>
@@ -2882,7 +2891,7 @@
         <v>2596540.2999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="150"/>
       <c r="B7" s="24" t="s">
         <v>71</v>
@@ -3002,7 +3011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="150"/>
       <c r="B8" s="24" t="s">
         <v>73</v>
@@ -3122,7 +3131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="24" t="s">
         <v>74</v>
@@ -3242,7 +3251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="150"/>
       <c r="B10" s="24" t="s">
         <v>75</v>
@@ -3362,7 +3371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="150"/>
       <c r="B11" s="24" t="s">
         <v>29</v>
@@ -3482,7 +3491,7 @@
         <v>763944.8</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="150"/>
       <c r="B12" s="24" t="s">
         <v>76</v>
@@ -3602,7 +3611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="150"/>
       <c r="B13" s="24" t="s">
         <v>48</v>
@@ -3722,7 +3731,7 @@
         <v>841099</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="150"/>
       <c r="B14" s="24" t="s">
         <v>77</v>
@@ -3842,7 +3851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="150"/>
       <c r="B15" s="24" t="s">
         <v>78</v>
@@ -3962,7 +3971,7 @@
         <v>720420</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="24" t="s">
         <v>45</v>
@@ -4082,7 +4091,7 @@
         <v>271076.5</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>425775.29087786446</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="32.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>80</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>775800</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="32.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:40" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="111" t="s">
         <v>82</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>4323483.5908778645</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>90</v>
       </c>
@@ -4508,7 +4517,7 @@
       <c r="AM20" s="30"/>
       <c r="AN20" s="30"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
         <v>84</v>
       </c>
@@ -4552,7 +4561,7 @@
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
         <v>85</v>
       </c>
@@ -4596,7 +4605,7 @@
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="118" t="s">
         <v>186</v>
       </c>
@@ -4640,7 +4649,7 @@
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="151" t="s">
         <v>86</v>
       </c>
@@ -4684,7 +4693,7 @@
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="148" t="s">
         <v>187</v>
       </c>
@@ -4728,7 +4737,7 @@
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="148" t="s">
         <v>87</v>
       </c>
@@ -4772,7 +4781,7 @@
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="121" t="s">
         <v>188</v>
       </c>
@@ -4816,7 +4825,7 @@
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="118" t="s">
         <v>88</v>
       </c>
@@ -4835,19 +4844,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -4855,7 +4864,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4885,7 +4894,7 @@
         <v>December</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4917,7 +4926,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4965,7 +4974,7 @@
         <v>January</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -4973,7 +4982,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5010,7 +5019,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5046,7 +5055,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -5106,7 +5115,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5146,7 +5155,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5162,7 +5171,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5178,7 +5187,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5196,7 +5205,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5214,7 +5223,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>823890</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5259,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5278,7 +5287,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -5320,7 +5329,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5340,7 +5349,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5388,7 +5397,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5409,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5420,7 +5429,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -5432,7 +5441,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5456,7 +5465,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>214955</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -5512,7 +5521,7 @@
         <v>373761.95541314717</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -5536,7 +5545,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5560,7 +5569,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>155848</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>141514</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -5604,7 +5613,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5613,7 +5622,7 @@
       </c>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -5623,7 +5632,7 @@
       </c>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>730209.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -5641,7 +5650,7 @@
         <v>259340.6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -5650,7 +5659,7 @@
       </c>
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -5660,7 +5669,7 @@
       </c>
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -5675,23 +5684,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>213</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5715,9 +5722,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="B3" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A3,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A3,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5728,9 +5735,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="B4" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A4,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A4,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5741,87 +5748,87 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A5,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A5,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="array" ref="B5">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A5,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.73</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="array" ref="C5">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A5,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A5,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>55</v>
       </c>
       <c r="B6" s="4">
         <f t="array" ref="B6">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A6,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A6,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A6,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.19995264681391473</v>
+        <v>0.73</v>
       </c>
       <c r="C6" s="4">
         <f t="array" ref="C6">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A6,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A6,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A6,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.25874935834251522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4">
         <f t="array" ref="B7">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A7,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A7,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A7,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.57696002514266531</v>
+        <v>0.19995264681391473</v>
       </c>
       <c r="C7" s="4">
         <f t="array" ref="C7">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A7,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A7,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A7,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>4.356377883202317E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.25874935834251522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <f t="array" ref="B8">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A8,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A8,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A8,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.39</v>
+        <v>0.57696002514266531</v>
       </c>
       <c r="C8" s="4">
         <f t="array" ref="C8">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A8,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A8,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A8,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4.356377883202317E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="array" ref="B9">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A9,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A9,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A9,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="C9" s="4">
         <f t="array" ref="C9">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A9,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A9,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A9,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="array" ref="B10">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
+        <v>0.87</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="array" ref="C10">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A10,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A10,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
       <c r="B11" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A11,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A11,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5832,9 +5839,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A12,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A12,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5845,9 +5852,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A13,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A13,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5858,35 +5865,35 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A14,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C14" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A14,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4">
-        <f t="array" ref="B14">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A14,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
+      <c r="B15" s="4">
+        <f t="array" ref="B15">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),1)</f>
         <v>0.31861529045405934</v>
       </c>
-      <c r="C14" s="4">
-        <f t="array" ref="C14">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A14,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A14,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
+      <c r="C15" s="4">
+        <f t="array" ref="C15">IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),1)</f>
         <v>0.61951796127279213</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="C15" s="4">
-        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A15,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A15,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>59</v>
       </c>
       <c r="B16" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A16,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A16,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5897,9 +5904,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
@@ -5907,6 +5914,19 @@
       </c>
       <c r="C17" s="4">
         <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A17,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A17,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A18,Calculations!$C$14:$C$53),IF(Calculations!$B$14:$B$53=PTCF!A18,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A18,Calculations!$C$14:$C$53,"&lt;&gt;"&amp;""),0.9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="4">
+        <f>IFERROR(SUMPRODUCT(IF(Calculations!$B$14:$B$53=PTCF!A18,Calculations!$D$14:$D$53),IF(Calculations!$B$14:$B$53=PTCF!A18,Calculations!$E$14:$E$53))/SUMIFS(Calculations!$E$14:$E$53,Calculations!$B$14:$B$53,PTCF!A18,Calculations!$D$14:$D$53,"&lt;&gt;"&amp;""),0.9)</f>
         <v>0.9</v>
       </c>
     </row>
@@ -5916,337 +5936,337 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:R111"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1328125" style="55"/>
-    <col min="3" max="3" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="258" width="9.1328125" style="55"/>
-    <col min="259" max="259" width="13.1328125" style="55" customWidth="1"/>
-    <col min="260" max="260" width="12.3984375" style="55" customWidth="1"/>
-    <col min="261" max="261" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="263" max="514" width="9.1328125" style="55"/>
-    <col min="515" max="515" width="13.1328125" style="55" customWidth="1"/>
-    <col min="516" max="516" width="12.3984375" style="55" customWidth="1"/>
-    <col min="517" max="517" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="519" max="770" width="9.1328125" style="55"/>
-    <col min="771" max="771" width="13.1328125" style="55" customWidth="1"/>
-    <col min="772" max="772" width="12.3984375" style="55" customWidth="1"/>
-    <col min="773" max="773" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="775" max="1026" width="9.1328125" style="55"/>
-    <col min="1027" max="1027" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1028" max="1028" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1029" max="1029" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1282" width="9.1328125" style="55"/>
-    <col min="1283" max="1283" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1284" max="1284" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1285" max="1285" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1538" width="9.1328125" style="55"/>
-    <col min="1539" max="1539" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1540" max="1540" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1541" max="1541" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1794" width="9.1328125" style="55"/>
-    <col min="1795" max="1795" width="13.1328125" style="55" customWidth="1"/>
-    <col min="1796" max="1796" width="12.3984375" style="55" customWidth="1"/>
-    <col min="1797" max="1797" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1799" max="2050" width="9.1328125" style="55"/>
-    <col min="2051" max="2051" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2052" max="2052" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2053" max="2053" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2306" width="9.1328125" style="55"/>
-    <col min="2307" max="2307" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2308" max="2308" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2309" max="2309" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2562" width="9.1328125" style="55"/>
-    <col min="2563" max="2563" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2564" max="2564" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2565" max="2565" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2818" width="9.1328125" style="55"/>
-    <col min="2819" max="2819" width="13.1328125" style="55" customWidth="1"/>
-    <col min="2820" max="2820" width="12.3984375" style="55" customWidth="1"/>
-    <col min="2821" max="2821" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2823" max="3074" width="9.1328125" style="55"/>
-    <col min="3075" max="3075" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3076" max="3076" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3077" max="3077" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3330" width="9.1328125" style="55"/>
-    <col min="3331" max="3331" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3332" max="3332" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3333" max="3333" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3586" width="9.1328125" style="55"/>
-    <col min="3587" max="3587" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3588" max="3588" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3589" max="3589" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3842" width="9.1328125" style="55"/>
-    <col min="3843" max="3843" width="13.1328125" style="55" customWidth="1"/>
-    <col min="3844" max="3844" width="12.3984375" style="55" customWidth="1"/>
-    <col min="3845" max="3845" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3847" max="4098" width="9.1328125" style="55"/>
-    <col min="4099" max="4099" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4100" max="4100" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4101" max="4101" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4354" width="9.1328125" style="55"/>
-    <col min="4355" max="4355" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4356" max="4356" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4357" max="4357" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4610" width="9.1328125" style="55"/>
-    <col min="4611" max="4611" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4612" max="4612" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4613" max="4613" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4866" width="9.1328125" style="55"/>
-    <col min="4867" max="4867" width="13.1328125" style="55" customWidth="1"/>
-    <col min="4868" max="4868" width="12.3984375" style="55" customWidth="1"/>
-    <col min="4869" max="4869" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4871" max="5122" width="9.1328125" style="55"/>
-    <col min="5123" max="5123" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5124" max="5124" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5125" max="5125" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5378" width="9.1328125" style="55"/>
-    <col min="5379" max="5379" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5380" max="5380" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5381" max="5381" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5634" width="9.1328125" style="55"/>
-    <col min="5635" max="5635" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5636" max="5636" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5637" max="5637" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5890" width="9.1328125" style="55"/>
-    <col min="5891" max="5891" width="13.1328125" style="55" customWidth="1"/>
-    <col min="5892" max="5892" width="12.3984375" style="55" customWidth="1"/>
-    <col min="5893" max="5893" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5895" max="6146" width="9.1328125" style="55"/>
-    <col min="6147" max="6147" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6148" max="6148" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6149" max="6149" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6402" width="9.1328125" style="55"/>
-    <col min="6403" max="6403" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6404" max="6404" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6405" max="6405" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6658" width="9.1328125" style="55"/>
-    <col min="6659" max="6659" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6660" max="6660" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6661" max="6661" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6914" width="9.1328125" style="55"/>
-    <col min="6915" max="6915" width="13.1328125" style="55" customWidth="1"/>
-    <col min="6916" max="6916" width="12.3984375" style="55" customWidth="1"/>
-    <col min="6917" max="6917" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6919" max="7170" width="9.1328125" style="55"/>
-    <col min="7171" max="7171" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7172" max="7172" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7173" max="7173" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7426" width="9.1328125" style="55"/>
-    <col min="7427" max="7427" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7428" max="7428" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7429" max="7429" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7682" width="9.1328125" style="55"/>
-    <col min="7683" max="7683" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7684" max="7684" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7685" max="7685" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7938" width="9.1328125" style="55"/>
-    <col min="7939" max="7939" width="13.1328125" style="55" customWidth="1"/>
-    <col min="7940" max="7940" width="12.3984375" style="55" customWidth="1"/>
-    <col min="7941" max="7941" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7943" max="8194" width="9.1328125" style="55"/>
-    <col min="8195" max="8195" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8196" max="8196" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8197" max="8197" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8450" width="9.1328125" style="55"/>
-    <col min="8451" max="8451" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8452" max="8452" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8453" max="8453" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8706" width="9.1328125" style="55"/>
-    <col min="8707" max="8707" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8708" max="8708" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8709" max="8709" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8962" width="9.1328125" style="55"/>
-    <col min="8963" max="8963" width="13.1328125" style="55" customWidth="1"/>
-    <col min="8964" max="8964" width="12.3984375" style="55" customWidth="1"/>
-    <col min="8965" max="8965" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8967" max="9218" width="9.1328125" style="55"/>
-    <col min="9219" max="9219" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9220" max="9220" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9221" max="9221" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9474" width="9.1328125" style="55"/>
-    <col min="9475" max="9475" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9476" max="9476" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9477" max="9477" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9730" width="9.1328125" style="55"/>
-    <col min="9731" max="9731" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9732" max="9732" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9733" max="9733" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9986" width="9.1328125" style="55"/>
-    <col min="9987" max="9987" width="13.1328125" style="55" customWidth="1"/>
-    <col min="9988" max="9988" width="12.3984375" style="55" customWidth="1"/>
-    <col min="9989" max="9989" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9991" max="10242" width="9.1328125" style="55"/>
-    <col min="10243" max="10243" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10244" max="10244" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10245" max="10245" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10498" width="9.1328125" style="55"/>
-    <col min="10499" max="10499" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10500" max="10500" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10501" max="10501" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10754" width="9.1328125" style="55"/>
-    <col min="10755" max="10755" width="13.1328125" style="55" customWidth="1"/>
-    <col min="10756" max="10756" width="12.3984375" style="55" customWidth="1"/>
-    <col min="10757" max="10757" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10759" max="11010" width="9.1328125" style="55"/>
-    <col min="11011" max="11011" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11012" max="11012" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11013" max="11013" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11266" width="9.1328125" style="55"/>
-    <col min="11267" max="11267" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11268" max="11268" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11269" max="11269" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11522" width="9.1328125" style="55"/>
-    <col min="11523" max="11523" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11524" max="11524" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11525" max="11525" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11778" width="9.1328125" style="55"/>
-    <col min="11779" max="11779" width="13.1328125" style="55" customWidth="1"/>
-    <col min="11780" max="11780" width="12.3984375" style="55" customWidth="1"/>
-    <col min="11781" max="11781" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11783" max="12034" width="9.1328125" style="55"/>
-    <col min="12035" max="12035" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12036" max="12036" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12037" max="12037" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12290" width="9.1328125" style="55"/>
-    <col min="12291" max="12291" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12292" max="12292" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12293" max="12293" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12546" width="9.1328125" style="55"/>
-    <col min="12547" max="12547" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12548" max="12548" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12549" max="12549" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12802" width="9.1328125" style="55"/>
-    <col min="12803" max="12803" width="13.1328125" style="55" customWidth="1"/>
-    <col min="12804" max="12804" width="12.3984375" style="55" customWidth="1"/>
-    <col min="12805" max="12805" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12807" max="13058" width="9.1328125" style="55"/>
-    <col min="13059" max="13059" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13060" max="13060" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13061" max="13061" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13314" width="9.1328125" style="55"/>
-    <col min="13315" max="13315" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13316" max="13316" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13317" max="13317" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13570" width="9.1328125" style="55"/>
-    <col min="13571" max="13571" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13572" max="13572" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13573" max="13573" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13826" width="9.1328125" style="55"/>
-    <col min="13827" max="13827" width="13.1328125" style="55" customWidth="1"/>
-    <col min="13828" max="13828" width="12.3984375" style="55" customWidth="1"/>
-    <col min="13829" max="13829" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13831" max="14082" width="9.1328125" style="55"/>
-    <col min="14083" max="14083" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14084" max="14084" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14085" max="14085" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14338" width="9.1328125" style="55"/>
-    <col min="14339" max="14339" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14340" max="14340" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14341" max="14341" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14594" width="9.1328125" style="55"/>
-    <col min="14595" max="14595" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14596" max="14596" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14597" max="14597" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14850" width="9.1328125" style="55"/>
-    <col min="14851" max="14851" width="13.1328125" style="55" customWidth="1"/>
-    <col min="14852" max="14852" width="12.3984375" style="55" customWidth="1"/>
-    <col min="14853" max="14853" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14855" max="15106" width="9.1328125" style="55"/>
-    <col min="15107" max="15107" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15108" max="15108" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15109" max="15109" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15362" width="9.1328125" style="55"/>
-    <col min="15363" max="15363" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15364" max="15364" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15365" max="15365" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15618" width="9.1328125" style="55"/>
-    <col min="15619" max="15619" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15620" max="15620" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15621" max="15621" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15874" width="9.1328125" style="55"/>
-    <col min="15875" max="15875" width="13.1328125" style="55" customWidth="1"/>
-    <col min="15876" max="15876" width="12.3984375" style="55" customWidth="1"/>
-    <col min="15877" max="15877" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15879" max="16130" width="9.1328125" style="55"/>
-    <col min="16131" max="16131" width="13.1328125" style="55" customWidth="1"/>
-    <col min="16132" max="16132" width="12.3984375" style="55" customWidth="1"/>
-    <col min="16133" max="16133" width="10.265625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="33.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16384" width="9.1328125" style="55"/>
+    <col min="1" max="2" width="9.140625" style="55"/>
+    <col min="3" max="3" width="13.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="258" width="9.140625" style="55"/>
+    <col min="259" max="259" width="13.140625" style="55" customWidth="1"/>
+    <col min="260" max="260" width="12.42578125" style="55" customWidth="1"/>
+    <col min="261" max="261" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="263" max="514" width="9.140625" style="55"/>
+    <col min="515" max="515" width="13.140625" style="55" customWidth="1"/>
+    <col min="516" max="516" width="12.42578125" style="55" customWidth="1"/>
+    <col min="517" max="517" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="519" max="770" width="9.140625" style="55"/>
+    <col min="771" max="771" width="13.140625" style="55" customWidth="1"/>
+    <col min="772" max="772" width="12.42578125" style="55" customWidth="1"/>
+    <col min="773" max="773" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="775" max="1026" width="9.140625" style="55"/>
+    <col min="1027" max="1027" width="13.140625" style="55" customWidth="1"/>
+    <col min="1028" max="1028" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1029" max="1029" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1282" width="9.140625" style="55"/>
+    <col min="1283" max="1283" width="13.140625" style="55" customWidth="1"/>
+    <col min="1284" max="1284" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1285" max="1285" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1538" width="9.140625" style="55"/>
+    <col min="1539" max="1539" width="13.140625" style="55" customWidth="1"/>
+    <col min="1540" max="1540" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1541" max="1541" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1794" width="9.140625" style="55"/>
+    <col min="1795" max="1795" width="13.140625" style="55" customWidth="1"/>
+    <col min="1796" max="1796" width="12.42578125" style="55" customWidth="1"/>
+    <col min="1797" max="1797" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1799" max="2050" width="9.140625" style="55"/>
+    <col min="2051" max="2051" width="13.140625" style="55" customWidth="1"/>
+    <col min="2052" max="2052" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2053" max="2053" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2306" width="9.140625" style="55"/>
+    <col min="2307" max="2307" width="13.140625" style="55" customWidth="1"/>
+    <col min="2308" max="2308" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2309" max="2309" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2562" width="9.140625" style="55"/>
+    <col min="2563" max="2563" width="13.140625" style="55" customWidth="1"/>
+    <col min="2564" max="2564" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2565" max="2565" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2818" width="9.140625" style="55"/>
+    <col min="2819" max="2819" width="13.140625" style="55" customWidth="1"/>
+    <col min="2820" max="2820" width="12.42578125" style="55" customWidth="1"/>
+    <col min="2821" max="2821" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2823" max="3074" width="9.140625" style="55"/>
+    <col min="3075" max="3075" width="13.140625" style="55" customWidth="1"/>
+    <col min="3076" max="3076" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3077" max="3077" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3330" width="9.140625" style="55"/>
+    <col min="3331" max="3331" width="13.140625" style="55" customWidth="1"/>
+    <col min="3332" max="3332" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3333" max="3333" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3586" width="9.140625" style="55"/>
+    <col min="3587" max="3587" width="13.140625" style="55" customWidth="1"/>
+    <col min="3588" max="3588" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3589" max="3589" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3842" width="9.140625" style="55"/>
+    <col min="3843" max="3843" width="13.140625" style="55" customWidth="1"/>
+    <col min="3844" max="3844" width="12.42578125" style="55" customWidth="1"/>
+    <col min="3845" max="3845" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3847" max="4098" width="9.140625" style="55"/>
+    <col min="4099" max="4099" width="13.140625" style="55" customWidth="1"/>
+    <col min="4100" max="4100" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4101" max="4101" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4354" width="9.140625" style="55"/>
+    <col min="4355" max="4355" width="13.140625" style="55" customWidth="1"/>
+    <col min="4356" max="4356" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4357" max="4357" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4610" width="9.140625" style="55"/>
+    <col min="4611" max="4611" width="13.140625" style="55" customWidth="1"/>
+    <col min="4612" max="4612" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4613" max="4613" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4866" width="9.140625" style="55"/>
+    <col min="4867" max="4867" width="13.140625" style="55" customWidth="1"/>
+    <col min="4868" max="4868" width="12.42578125" style="55" customWidth="1"/>
+    <col min="4869" max="4869" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4871" max="5122" width="9.140625" style="55"/>
+    <col min="5123" max="5123" width="13.140625" style="55" customWidth="1"/>
+    <col min="5124" max="5124" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5125" max="5125" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5378" width="9.140625" style="55"/>
+    <col min="5379" max="5379" width="13.140625" style="55" customWidth="1"/>
+    <col min="5380" max="5380" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5381" max="5381" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5634" width="9.140625" style="55"/>
+    <col min="5635" max="5635" width="13.140625" style="55" customWidth="1"/>
+    <col min="5636" max="5636" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5637" max="5637" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5890" width="9.140625" style="55"/>
+    <col min="5891" max="5891" width="13.140625" style="55" customWidth="1"/>
+    <col min="5892" max="5892" width="12.42578125" style="55" customWidth="1"/>
+    <col min="5893" max="5893" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5895" max="6146" width="9.140625" style="55"/>
+    <col min="6147" max="6147" width="13.140625" style="55" customWidth="1"/>
+    <col min="6148" max="6148" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6149" max="6149" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6402" width="9.140625" style="55"/>
+    <col min="6403" max="6403" width="13.140625" style="55" customWidth="1"/>
+    <col min="6404" max="6404" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6405" max="6405" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6658" width="9.140625" style="55"/>
+    <col min="6659" max="6659" width="13.140625" style="55" customWidth="1"/>
+    <col min="6660" max="6660" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6661" max="6661" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6914" width="9.140625" style="55"/>
+    <col min="6915" max="6915" width="13.140625" style="55" customWidth="1"/>
+    <col min="6916" max="6916" width="12.42578125" style="55" customWidth="1"/>
+    <col min="6917" max="6917" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6919" max="7170" width="9.140625" style="55"/>
+    <col min="7171" max="7171" width="13.140625" style="55" customWidth="1"/>
+    <col min="7172" max="7172" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7173" max="7173" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7426" width="9.140625" style="55"/>
+    <col min="7427" max="7427" width="13.140625" style="55" customWidth="1"/>
+    <col min="7428" max="7428" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7429" max="7429" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7682" width="9.140625" style="55"/>
+    <col min="7683" max="7683" width="13.140625" style="55" customWidth="1"/>
+    <col min="7684" max="7684" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7685" max="7685" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7938" width="9.140625" style="55"/>
+    <col min="7939" max="7939" width="13.140625" style="55" customWidth="1"/>
+    <col min="7940" max="7940" width="12.42578125" style="55" customWidth="1"/>
+    <col min="7941" max="7941" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7943" max="8194" width="9.140625" style="55"/>
+    <col min="8195" max="8195" width="13.140625" style="55" customWidth="1"/>
+    <col min="8196" max="8196" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8197" max="8197" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8450" width="9.140625" style="55"/>
+    <col min="8451" max="8451" width="13.140625" style="55" customWidth="1"/>
+    <col min="8452" max="8452" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8453" max="8453" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8706" width="9.140625" style="55"/>
+    <col min="8707" max="8707" width="13.140625" style="55" customWidth="1"/>
+    <col min="8708" max="8708" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8709" max="8709" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8962" width="9.140625" style="55"/>
+    <col min="8963" max="8963" width="13.140625" style="55" customWidth="1"/>
+    <col min="8964" max="8964" width="12.42578125" style="55" customWidth="1"/>
+    <col min="8965" max="8965" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8967" max="9218" width="9.140625" style="55"/>
+    <col min="9219" max="9219" width="13.140625" style="55" customWidth="1"/>
+    <col min="9220" max="9220" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9221" max="9221" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9474" width="9.140625" style="55"/>
+    <col min="9475" max="9475" width="13.140625" style="55" customWidth="1"/>
+    <col min="9476" max="9476" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9477" max="9477" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9730" width="9.140625" style="55"/>
+    <col min="9731" max="9731" width="13.140625" style="55" customWidth="1"/>
+    <col min="9732" max="9732" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9733" max="9733" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9986" width="9.140625" style="55"/>
+    <col min="9987" max="9987" width="13.140625" style="55" customWidth="1"/>
+    <col min="9988" max="9988" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9989" max="9989" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9991" max="10242" width="9.140625" style="55"/>
+    <col min="10243" max="10243" width="13.140625" style="55" customWidth="1"/>
+    <col min="10244" max="10244" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10245" max="10245" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10498" width="9.140625" style="55"/>
+    <col min="10499" max="10499" width="13.140625" style="55" customWidth="1"/>
+    <col min="10500" max="10500" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10501" max="10501" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10754" width="9.140625" style="55"/>
+    <col min="10755" max="10755" width="13.140625" style="55" customWidth="1"/>
+    <col min="10756" max="10756" width="12.42578125" style="55" customWidth="1"/>
+    <col min="10757" max="10757" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10759" max="11010" width="9.140625" style="55"/>
+    <col min="11011" max="11011" width="13.140625" style="55" customWidth="1"/>
+    <col min="11012" max="11012" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11013" max="11013" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11266" width="9.140625" style="55"/>
+    <col min="11267" max="11267" width="13.140625" style="55" customWidth="1"/>
+    <col min="11268" max="11268" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11269" max="11269" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11522" width="9.140625" style="55"/>
+    <col min="11523" max="11523" width="13.140625" style="55" customWidth="1"/>
+    <col min="11524" max="11524" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11525" max="11525" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11778" width="9.140625" style="55"/>
+    <col min="11779" max="11779" width="13.140625" style="55" customWidth="1"/>
+    <col min="11780" max="11780" width="12.42578125" style="55" customWidth="1"/>
+    <col min="11781" max="11781" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11783" max="12034" width="9.140625" style="55"/>
+    <col min="12035" max="12035" width="13.140625" style="55" customWidth="1"/>
+    <col min="12036" max="12036" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12037" max="12037" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12290" width="9.140625" style="55"/>
+    <col min="12291" max="12291" width="13.140625" style="55" customWidth="1"/>
+    <col min="12292" max="12292" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12293" max="12293" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12546" width="9.140625" style="55"/>
+    <col min="12547" max="12547" width="13.140625" style="55" customWidth="1"/>
+    <col min="12548" max="12548" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12549" max="12549" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12802" width="9.140625" style="55"/>
+    <col min="12803" max="12803" width="13.140625" style="55" customWidth="1"/>
+    <col min="12804" max="12804" width="12.42578125" style="55" customWidth="1"/>
+    <col min="12805" max="12805" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12807" max="13058" width="9.140625" style="55"/>
+    <col min="13059" max="13059" width="13.140625" style="55" customWidth="1"/>
+    <col min="13060" max="13060" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13061" max="13061" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13314" width="9.140625" style="55"/>
+    <col min="13315" max="13315" width="13.140625" style="55" customWidth="1"/>
+    <col min="13316" max="13316" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13317" max="13317" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13570" width="9.140625" style="55"/>
+    <col min="13571" max="13571" width="13.140625" style="55" customWidth="1"/>
+    <col min="13572" max="13572" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13573" max="13573" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13826" width="9.140625" style="55"/>
+    <col min="13827" max="13827" width="13.140625" style="55" customWidth="1"/>
+    <col min="13828" max="13828" width="12.42578125" style="55" customWidth="1"/>
+    <col min="13829" max="13829" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13831" max="14082" width="9.140625" style="55"/>
+    <col min="14083" max="14083" width="13.140625" style="55" customWidth="1"/>
+    <col min="14084" max="14084" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14085" max="14085" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14338" width="9.140625" style="55"/>
+    <col min="14339" max="14339" width="13.140625" style="55" customWidth="1"/>
+    <col min="14340" max="14340" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14341" max="14341" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14594" width="9.140625" style="55"/>
+    <col min="14595" max="14595" width="13.140625" style="55" customWidth="1"/>
+    <col min="14596" max="14596" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14597" max="14597" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14850" width="9.140625" style="55"/>
+    <col min="14851" max="14851" width="13.140625" style="55" customWidth="1"/>
+    <col min="14852" max="14852" width="12.42578125" style="55" customWidth="1"/>
+    <col min="14853" max="14853" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14855" max="15106" width="9.140625" style="55"/>
+    <col min="15107" max="15107" width="13.140625" style="55" customWidth="1"/>
+    <col min="15108" max="15108" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15109" max="15109" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15362" width="9.140625" style="55"/>
+    <col min="15363" max="15363" width="13.140625" style="55" customWidth="1"/>
+    <col min="15364" max="15364" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15365" max="15365" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15618" width="9.140625" style="55"/>
+    <col min="15619" max="15619" width="13.140625" style="55" customWidth="1"/>
+    <col min="15620" max="15620" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15621" max="15621" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15874" width="9.140625" style="55"/>
+    <col min="15875" max="15875" width="13.140625" style="55" customWidth="1"/>
+    <col min="15876" max="15876" width="12.42578125" style="55" customWidth="1"/>
+    <col min="15877" max="15877" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15879" max="16130" width="9.140625" style="55"/>
+    <col min="16131" max="16131" width="13.140625" style="55" customWidth="1"/>
+    <col min="16132" max="16132" width="12.42578125" style="55" customWidth="1"/>
+    <col min="16133" max="16133" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="33.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>111</v>
       </c>
@@ -6254,7 +6274,7 @@
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
     </row>
-    <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
@@ -6262,7 +6282,7 @@
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
     </row>
-    <row r="5" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>112</v>
       </c>
@@ -6270,17 +6290,17 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
     </row>
-    <row r="8" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="58" t="s">
         <v>113</v>
       </c>
@@ -6289,18 +6309,18 @@
       <c r="E8" s="59"/>
       <c r="F8" s="60"/>
     </row>
-    <row r="9" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="129"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="62"/>
       <c r="F9" s="63"/>
     </row>
-    <row r="10" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="64">
         <v>1</v>
       </c>
@@ -6311,7 +6331,7 @@
       <c r="E10" s="65"/>
       <c r="F10" s="63"/>
     </row>
-    <row r="11" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="64">
         <v>2</v>
       </c>
@@ -6334,7 +6354,7 @@
       <c r="Q11" s="65"/>
       <c r="R11" s="65"/>
     </row>
-    <row r="12" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="64">
         <v>3</v>
       </c>
@@ -6345,7 +6365,7 @@
       <c r="E12" s="65"/>
       <c r="F12" s="63"/>
     </row>
-    <row r="13" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="64">
         <v>4</v>
       </c>
@@ -6356,7 +6376,7 @@
       <c r="E13" s="65"/>
       <c r="F13" s="63"/>
     </row>
-    <row r="14" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="64">
         <v>5</v>
       </c>
@@ -6367,7 +6387,7 @@
       <c r="E14" s="65"/>
       <c r="F14" s="63"/>
     </row>
-    <row r="15" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="64">
         <v>6</v>
       </c>
@@ -6378,7 +6398,7 @@
       <c r="E15" s="65"/>
       <c r="F15" s="63"/>
     </row>
-    <row r="16" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="64">
         <v>7</v>
       </c>
@@ -6389,7 +6409,7 @@
       <c r="E16" s="65"/>
       <c r="F16" s="63"/>
     </row>
-    <row r="17" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="64">
         <v>8</v>
       </c>
@@ -6400,7 +6420,7 @@
       <c r="E17" s="65"/>
       <c r="F17" s="63"/>
     </row>
-    <row r="18" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="64">
         <v>9</v>
       </c>
@@ -6411,7 +6431,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="63"/>
     </row>
-    <row r="19" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="64">
         <v>10</v>
       </c>
@@ -6422,7 +6442,7 @@
       <c r="E19" s="65"/>
       <c r="F19" s="63"/>
     </row>
-    <row r="20" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="64">
         <v>11</v>
       </c>
@@ -6434,7 +6454,7 @@
       <c r="F20" s="63"/>
       <c r="L20" s="65"/>
     </row>
-    <row r="21" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="64">
         <v>12</v>
       </c>
@@ -6445,21 +6465,21 @@
       <c r="E21" s="65"/>
       <c r="F21" s="63"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="63"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="63"/>
     </row>
-    <row r="23" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="64"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
       <c r="E23" s="68"/>
       <c r="F23" s="67"/>
     </row>
-    <row r="24" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
         <v>3</v>
       </c>
@@ -6468,18 +6488,18 @@
       <c r="E24" s="69"/>
       <c r="F24" s="70"/>
     </row>
-    <row r="25" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="129"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="62"/>
       <c r="F25" s="63"/>
     </row>
-    <row r="26" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="64">
         <v>1</v>
       </c>
@@ -6490,7 +6510,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="63"/>
     </row>
-    <row r="27" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="64">
         <v>2</v>
       </c>
@@ -6501,7 +6521,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="63"/>
     </row>
-    <row r="28" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="64">
         <v>3</v>
       </c>
@@ -6512,7 +6532,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="63"/>
     </row>
-    <row r="29" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="64">
         <v>4</v>
       </c>
@@ -6523,7 +6543,7 @@
       <c r="E29" s="68"/>
       <c r="F29" s="63"/>
     </row>
-    <row r="30" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="64">
         <v>5</v>
       </c>
@@ -6534,7 +6554,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="63"/>
     </row>
-    <row r="31" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="64">
         <v>6</v>
       </c>
@@ -6545,7 +6565,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="63"/>
     </row>
-    <row r="32" spans="2:12" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="64">
         <v>7</v>
       </c>
@@ -6556,7 +6576,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="63"/>
     </row>
-    <row r="33" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="64">
         <v>8</v>
       </c>
@@ -6567,7 +6587,7 @@
       <c r="E33" s="68"/>
       <c r="F33" s="63"/>
     </row>
-    <row r="34" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="64">
         <v>9</v>
       </c>
@@ -6578,7 +6598,7 @@
       <c r="E34" s="68"/>
       <c r="F34" s="63"/>
     </row>
-    <row r="35" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="64">
         <v>10</v>
       </c>
@@ -6589,7 +6609,7 @@
       <c r="E35" s="68"/>
       <c r="F35" s="63"/>
     </row>
-    <row r="36" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="64">
         <v>11</v>
       </c>
@@ -6600,7 +6620,7 @@
       <c r="E36" s="68"/>
       <c r="F36" s="63"/>
     </row>
-    <row r="37" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="64">
         <v>12</v>
       </c>
@@ -6611,70 +6631,70 @@
       <c r="E37" s="68"/>
       <c r="F37" s="63"/>
     </row>
-    <row r="38" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="64"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
       <c r="E38" s="68"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="64"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
       <c r="E39" s="68"/>
       <c r="F39" s="63"/>
     </row>
-    <row r="40" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="64"/>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
       <c r="E40" s="68"/>
       <c r="F40" s="63"/>
     </row>
-    <row r="41" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="64"/>
       <c r="C41" s="71"/>
       <c r="D41" s="71"/>
       <c r="E41" s="68"/>
       <c r="F41" s="63"/>
     </row>
-    <row r="42" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="64"/>
       <c r="C42" s="71"/>
       <c r="D42" s="71"/>
       <c r="E42" s="68"/>
       <c r="F42" s="63"/>
     </row>
-    <row r="43" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="64"/>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
       <c r="E43" s="68"/>
       <c r="F43" s="63"/>
     </row>
-    <row r="44" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="64"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
       <c r="E44" s="68"/>
       <c r="F44" s="63"/>
     </row>
-    <row r="45" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="64"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
       <c r="E45" s="68"/>
       <c r="F45" s="63"/>
     </row>
-    <row r="46" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="63"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="129"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
     </row>
-    <row r="47" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="58" t="s">
         <v>17</v>
       </c>
@@ -6683,7 +6703,7 @@
       <c r="E47" s="59"/>
       <c r="F47" s="60"/>
     </row>
-    <row r="48" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="61" t="s">
         <v>16</v>
       </c>
@@ -6700,7 +6720,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="64">
         <v>1</v>
       </c>
@@ -6717,7 +6737,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="64">
         <v>2</v>
       </c>
@@ -6734,7 +6754,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="64">
         <v>3</v>
       </c>
@@ -6751,7 +6771,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="64">
         <v>4</v>
       </c>
@@ -6768,7 +6788,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="64">
         <v>5</v>
       </c>
@@ -6785,7 +6805,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="64">
         <v>6</v>
       </c>
@@ -6802,7 +6822,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="64">
         <v>7</v>
       </c>
@@ -6819,7 +6839,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="64">
         <v>8</v>
       </c>
@@ -6836,7 +6856,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="64">
         <v>9</v>
       </c>
@@ -6853,7 +6873,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="64">
         <v>10</v>
       </c>
@@ -6870,7 +6890,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="64">
         <v>11</v>
       </c>
@@ -6887,7 +6907,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="64">
         <v>12</v>
       </c>
@@ -6904,14 +6924,14 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
     </row>
-    <row r="62" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="58" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6940,7 @@
       <c r="E62" s="59"/>
       <c r="F62" s="60"/>
     </row>
-    <row r="63" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="61" t="s">
         <v>16</v>
       </c>
@@ -6937,7 +6957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="64">
         <v>1</v>
       </c>
@@ -6954,7 +6974,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="64">
         <v>2</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="64">
         <v>3</v>
       </c>
@@ -6988,7 +7008,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="64">
         <v>4</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="64">
         <v>5</v>
       </c>
@@ -7022,7 +7042,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="64">
         <v>6</v>
       </c>
@@ -7039,7 +7059,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="64">
         <v>7</v>
       </c>
@@ -7056,7 +7076,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="64">
         <v>8</v>
       </c>
@@ -7073,7 +7093,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="64">
         <v>9</v>
       </c>
@@ -7090,7 +7110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="64">
         <v>10</v>
       </c>
@@ -7107,7 +7127,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="64">
         <v>11</v>
       </c>
@@ -7124,7 +7144,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="64">
         <v>12</v>
       </c>
@@ -7141,14 +7161,14 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="63"/>
       <c r="C76" s="63"/>
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
     </row>
-    <row r="77" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
         <v>4</v>
       </c>
@@ -7157,7 +7177,7 @@
       <c r="E77" s="59"/>
       <c r="F77" s="60"/>
     </row>
-    <row r="78" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="61" t="s">
         <v>16</v>
       </c>
@@ -7174,7 +7194,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="64">
         <v>1</v>
       </c>
@@ -7191,7 +7211,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="64">
         <v>2</v>
       </c>
@@ -7208,7 +7228,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="64">
         <v>3</v>
       </c>
@@ -7225,7 +7245,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="64">
         <v>4</v>
       </c>
@@ -7242,7 +7262,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="64">
         <v>5</v>
       </c>
@@ -7259,7 +7279,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="64">
         <v>6</v>
       </c>
@@ -7276,7 +7296,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="64">
         <v>7</v>
       </c>
@@ -7293,7 +7313,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="64">
         <v>8</v>
       </c>
@@ -7310,7 +7330,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="64">
         <v>9</v>
       </c>
@@ -7327,7 +7347,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="64">
         <v>10</v>
       </c>
@@ -7344,7 +7364,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="64">
         <v>11</v>
       </c>
@@ -7361,7 +7381,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="64">
         <v>12</v>
       </c>
@@ -7378,21 +7398,21 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="63"/>
       <c r="C91" s="63"/>
       <c r="D91" s="66"/>
       <c r="E91" s="66"/>
       <c r="F91" s="66"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="63"/>
       <c r="C92" s="63"/>
       <c r="D92" s="66"/>
       <c r="E92" s="66"/>
       <c r="F92" s="66"/>
     </row>
-    <row r="93" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="75" t="s">
         <v>19</v>
       </c>
@@ -7401,7 +7421,7 @@
       <c r="E93" s="59"/>
       <c r="F93" s="60"/>
     </row>
-    <row r="94" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="61" t="s">
         <v>16</v>
       </c>
@@ -7418,7 +7438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="64">
         <v>1</v>
       </c>
@@ -7435,7 +7455,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="64">
         <v>2</v>
       </c>
@@ -7452,7 +7472,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="64">
         <v>3</v>
       </c>
@@ -7469,7 +7489,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="64">
         <v>4</v>
       </c>
@@ -7486,7 +7506,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="64">
         <v>5</v>
       </c>
@@ -7503,7 +7523,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="64">
         <v>6</v>
       </c>
@@ -7520,7 +7540,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="64">
         <v>7</v>
       </c>
@@ -7537,7 +7557,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="64">
         <v>8</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="64">
         <v>9</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="64">
         <v>10</v>
       </c>
@@ -7588,7 +7608,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="64">
         <v>11</v>
       </c>
@@ -7605,7 +7625,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="64">
         <v>12</v>
       </c>
@@ -7622,22 +7642,22 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" s="56"/>
       <c r="E107" s="56"/>
       <c r="F107" s="56"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="56"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D109" s="56"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
@@ -7645,7 +7665,7 @@
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
@@ -7655,12 +7675,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -7673,15 +7696,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7692,166 +7712,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="257" max="257" width="4.265625" customWidth="1"/>
-    <col min="258" max="258" width="10.1328125" customWidth="1"/>
-    <col min="513" max="513" width="4.265625" customWidth="1"/>
-    <col min="514" max="514" width="10.1328125" customWidth="1"/>
-    <col min="769" max="769" width="4.265625" customWidth="1"/>
-    <col min="770" max="770" width="10.1328125" customWidth="1"/>
-    <col min="1025" max="1025" width="4.265625" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1328125" customWidth="1"/>
-    <col min="1281" max="1281" width="4.265625" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1328125" customWidth="1"/>
-    <col min="1537" max="1537" width="4.265625" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1328125" customWidth="1"/>
-    <col min="1793" max="1793" width="4.265625" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1328125" customWidth="1"/>
-    <col min="2049" max="2049" width="4.265625" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1328125" customWidth="1"/>
-    <col min="2305" max="2305" width="4.265625" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1328125" customWidth="1"/>
-    <col min="2561" max="2561" width="4.265625" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1328125" customWidth="1"/>
-    <col min="2817" max="2817" width="4.265625" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1328125" customWidth="1"/>
-    <col min="3073" max="3073" width="4.265625" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1328125" customWidth="1"/>
-    <col min="3329" max="3329" width="4.265625" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1328125" customWidth="1"/>
-    <col min="3585" max="3585" width="4.265625" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1328125" customWidth="1"/>
-    <col min="3841" max="3841" width="4.265625" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1328125" customWidth="1"/>
-    <col min="4097" max="4097" width="4.265625" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1328125" customWidth="1"/>
-    <col min="4353" max="4353" width="4.265625" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1328125" customWidth="1"/>
-    <col min="4609" max="4609" width="4.265625" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1328125" customWidth="1"/>
-    <col min="4865" max="4865" width="4.265625" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1328125" customWidth="1"/>
-    <col min="5121" max="5121" width="4.265625" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1328125" customWidth="1"/>
-    <col min="5377" max="5377" width="4.265625" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1328125" customWidth="1"/>
-    <col min="5633" max="5633" width="4.265625" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1328125" customWidth="1"/>
-    <col min="5889" max="5889" width="4.265625" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1328125" customWidth="1"/>
-    <col min="6145" max="6145" width="4.265625" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1328125" customWidth="1"/>
-    <col min="6401" max="6401" width="4.265625" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1328125" customWidth="1"/>
-    <col min="6657" max="6657" width="4.265625" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1328125" customWidth="1"/>
-    <col min="6913" max="6913" width="4.265625" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1328125" customWidth="1"/>
-    <col min="7169" max="7169" width="4.265625" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1328125" customWidth="1"/>
-    <col min="7425" max="7425" width="4.265625" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1328125" customWidth="1"/>
-    <col min="7681" max="7681" width="4.265625" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1328125" customWidth="1"/>
-    <col min="7937" max="7937" width="4.265625" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1328125" customWidth="1"/>
-    <col min="8193" max="8193" width="4.265625" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1328125" customWidth="1"/>
-    <col min="8449" max="8449" width="4.265625" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1328125" customWidth="1"/>
-    <col min="8705" max="8705" width="4.265625" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1328125" customWidth="1"/>
-    <col min="8961" max="8961" width="4.265625" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1328125" customWidth="1"/>
-    <col min="9217" max="9217" width="4.265625" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1328125" customWidth="1"/>
-    <col min="9473" max="9473" width="4.265625" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1328125" customWidth="1"/>
-    <col min="9729" max="9729" width="4.265625" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1328125" customWidth="1"/>
-    <col min="9985" max="9985" width="4.265625" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1328125" customWidth="1"/>
-    <col min="10241" max="10241" width="4.265625" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1328125" customWidth="1"/>
-    <col min="10497" max="10497" width="4.265625" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1328125" customWidth="1"/>
-    <col min="10753" max="10753" width="4.265625" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1328125" customWidth="1"/>
-    <col min="11009" max="11009" width="4.265625" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1328125" customWidth="1"/>
-    <col min="11265" max="11265" width="4.265625" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1328125" customWidth="1"/>
-    <col min="11521" max="11521" width="4.265625" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1328125" customWidth="1"/>
-    <col min="11777" max="11777" width="4.265625" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1328125" customWidth="1"/>
-    <col min="12033" max="12033" width="4.265625" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1328125" customWidth="1"/>
-    <col min="12289" max="12289" width="4.265625" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1328125" customWidth="1"/>
-    <col min="12545" max="12545" width="4.265625" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1328125" customWidth="1"/>
-    <col min="12801" max="12801" width="4.265625" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1328125" customWidth="1"/>
-    <col min="13057" max="13057" width="4.265625" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1328125" customWidth="1"/>
-    <col min="13313" max="13313" width="4.265625" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1328125" customWidth="1"/>
-    <col min="13569" max="13569" width="4.265625" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1328125" customWidth="1"/>
-    <col min="13825" max="13825" width="4.265625" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1328125" customWidth="1"/>
-    <col min="14081" max="14081" width="4.265625" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1328125" customWidth="1"/>
-    <col min="14337" max="14337" width="4.265625" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1328125" customWidth="1"/>
-    <col min="14593" max="14593" width="4.265625" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1328125" customWidth="1"/>
-    <col min="14849" max="14849" width="4.265625" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1328125" customWidth="1"/>
-    <col min="15105" max="15105" width="4.265625" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1328125" customWidth="1"/>
-    <col min="15361" max="15361" width="4.265625" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1328125" customWidth="1"/>
-    <col min="15617" max="15617" width="4.265625" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1328125" customWidth="1"/>
-    <col min="15873" max="15873" width="4.265625" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1328125" customWidth="1"/>
-    <col min="16129" max="16129" width="4.265625" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="257" max="257" width="4.28515625" customWidth="1"/>
+    <col min="258" max="258" width="10.140625" customWidth="1"/>
+    <col min="513" max="513" width="4.28515625" customWidth="1"/>
+    <col min="514" max="514" width="10.140625" customWidth="1"/>
+    <col min="769" max="769" width="4.28515625" customWidth="1"/>
+    <col min="770" max="770" width="10.140625" customWidth="1"/>
+    <col min="1025" max="1025" width="4.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="10.140625" customWidth="1"/>
+    <col min="1281" max="1281" width="4.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="10.140625" customWidth="1"/>
+    <col min="1537" max="1537" width="4.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="10.140625" customWidth="1"/>
+    <col min="1793" max="1793" width="4.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="10.140625" customWidth="1"/>
+    <col min="2049" max="2049" width="4.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="10.140625" customWidth="1"/>
+    <col min="2305" max="2305" width="4.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="10.140625" customWidth="1"/>
+    <col min="2561" max="2561" width="4.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="10.140625" customWidth="1"/>
+    <col min="2817" max="2817" width="4.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="10.140625" customWidth="1"/>
+    <col min="3073" max="3073" width="4.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="10.140625" customWidth="1"/>
+    <col min="3329" max="3329" width="4.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="10.140625" customWidth="1"/>
+    <col min="3585" max="3585" width="4.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="10.140625" customWidth="1"/>
+    <col min="3841" max="3841" width="4.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="10.140625" customWidth="1"/>
+    <col min="4097" max="4097" width="4.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="10.140625" customWidth="1"/>
+    <col min="4353" max="4353" width="4.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="10.140625" customWidth="1"/>
+    <col min="4609" max="4609" width="4.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="10.140625" customWidth="1"/>
+    <col min="4865" max="4865" width="4.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="10.140625" customWidth="1"/>
+    <col min="5121" max="5121" width="4.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="10.140625" customWidth="1"/>
+    <col min="5377" max="5377" width="4.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="10.140625" customWidth="1"/>
+    <col min="5633" max="5633" width="4.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="10.140625" customWidth="1"/>
+    <col min="5889" max="5889" width="4.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="10.140625" customWidth="1"/>
+    <col min="6145" max="6145" width="4.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="10.140625" customWidth="1"/>
+    <col min="6401" max="6401" width="4.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="10.140625" customWidth="1"/>
+    <col min="6657" max="6657" width="4.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="10.140625" customWidth="1"/>
+    <col min="6913" max="6913" width="4.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="10.140625" customWidth="1"/>
+    <col min="7169" max="7169" width="4.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="10.140625" customWidth="1"/>
+    <col min="7425" max="7425" width="4.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="10.140625" customWidth="1"/>
+    <col min="7681" max="7681" width="4.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="10.140625" customWidth="1"/>
+    <col min="7937" max="7937" width="4.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="10.140625" customWidth="1"/>
+    <col min="8193" max="8193" width="4.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="10.140625" customWidth="1"/>
+    <col min="8449" max="8449" width="4.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="10.140625" customWidth="1"/>
+    <col min="8705" max="8705" width="4.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="10.140625" customWidth="1"/>
+    <col min="8961" max="8961" width="4.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="10.140625" customWidth="1"/>
+    <col min="9217" max="9217" width="4.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="10.140625" customWidth="1"/>
+    <col min="9473" max="9473" width="4.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="10.140625" customWidth="1"/>
+    <col min="9729" max="9729" width="4.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="10.140625" customWidth="1"/>
+    <col min="9985" max="9985" width="4.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="10.140625" customWidth="1"/>
+    <col min="10241" max="10241" width="4.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="10.140625" customWidth="1"/>
+    <col min="10497" max="10497" width="4.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="10.140625" customWidth="1"/>
+    <col min="10753" max="10753" width="4.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="10.140625" customWidth="1"/>
+    <col min="11009" max="11009" width="4.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="10.140625" customWidth="1"/>
+    <col min="11265" max="11265" width="4.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="10.140625" customWidth="1"/>
+    <col min="11521" max="11521" width="4.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="10.140625" customWidth="1"/>
+    <col min="11777" max="11777" width="4.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="10.140625" customWidth="1"/>
+    <col min="12033" max="12033" width="4.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="10.140625" customWidth="1"/>
+    <col min="12289" max="12289" width="4.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="10.140625" customWidth="1"/>
+    <col min="12545" max="12545" width="4.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="10.140625" customWidth="1"/>
+    <col min="12801" max="12801" width="4.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="10.140625" customWidth="1"/>
+    <col min="13057" max="13057" width="4.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="10.140625" customWidth="1"/>
+    <col min="13313" max="13313" width="4.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="10.140625" customWidth="1"/>
+    <col min="13569" max="13569" width="4.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="10.140625" customWidth="1"/>
+    <col min="13825" max="13825" width="4.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="10.140625" customWidth="1"/>
+    <col min="14081" max="14081" width="4.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="10.140625" customWidth="1"/>
+    <col min="14337" max="14337" width="4.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="10.140625" customWidth="1"/>
+    <col min="14593" max="14593" width="4.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="10.140625" customWidth="1"/>
+    <col min="14849" max="14849" width="4.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="10.140625" customWidth="1"/>
+    <col min="15105" max="15105" width="4.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="10.140625" customWidth="1"/>
+    <col min="15361" max="15361" width="4.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="10.140625" customWidth="1"/>
+    <col min="15617" max="15617" width="4.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="10.140625" customWidth="1"/>
+    <col min="15873" max="15873" width="4.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="10.140625" customWidth="1"/>
+    <col min="16129" max="16129" width="4.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="J2" s="77" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
       <c r="J3" s="78" t="s">
         <v>130</v>
       </c>
@@ -7862,17 +7882,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
       <c r="I4" s="8"/>
       <c r="J4" s="79">
         <f>SUMPRODUCT(C7:C16,D7:D16)/SUM(D7:D16)</f>
@@ -7887,29 +7907,29 @@
         <v>0.1917136686385521</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135" t="s">
+      <c r="F5" s="136"/>
+      <c r="G5" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="136"/>
+      <c r="H5" s="138"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="81" t="s">
         <v>20</v>
@@ -7933,17 +7953,17 @@
         <v>136</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>138</v>
@@ -7975,7 +7995,7 @@
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>139</v>
@@ -8007,7 +8027,7 @@
       <c r="O8" s="85"/>
       <c r="P8" s="85"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>140</v>
       </c>
@@ -8036,7 +8056,7 @@
       <c r="M9" s="85"/>
       <c r="N9" s="85"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>141</v>
       </c>
@@ -8065,7 +8085,7 @@
       <c r="M10" s="85"/>
       <c r="N10" s="85"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
@@ -8094,7 +8114,7 @@
       <c r="M11" s="85"/>
       <c r="N11" s="85"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -8119,7 +8139,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
@@ -8144,7 +8164,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="86" t="s">
         <v>23</v>
       </c>
@@ -8169,7 +8189,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="86" t="s">
         <v>143</v>
       </c>
@@ -8194,7 +8214,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="86" t="s">
         <v>144</v>
       </c>
@@ -8217,7 +8237,7 @@
         <v>8023.9349999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
@@ -8231,7 +8251,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" s="87" t="s">
         <v>146</v>
       </c>
@@ -8239,12 +8259,12 @@
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="137" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
       <c r="F22" s="89" t="s">
         <v>148</v>
       </c>
@@ -8252,12 +8272,12 @@
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="137" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
       <c r="F23" s="90">
         <f>SUMPRODUCT(C25:C27,D25:D27)/SUM(D25:D27)</f>
         <v>6.8617832470217896E-2</v>
@@ -8266,7 +8286,7 @@
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
     </row>
-    <row r="24" spans="2:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="91" t="s">
         <v>20</v>
       </c>
@@ -8281,7 +8301,7 @@
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="86" t="s">
         <v>149</v>
       </c>
@@ -8297,7 +8317,7 @@
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="86" t="s">
         <v>150</v>
       </c>
@@ -8312,7 +8332,7 @@
       <c r="H26" s="88"/>
       <c r="I26" s="88"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="86" t="s">
         <v>151</v>
       </c>
@@ -8322,38 +8342,38 @@
       <c r="D27" s="96">
         <v>928.7</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F27" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="97"/>
       <c r="C28" s="97"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="76" t="s">
         <v>153</v>
       </c>
@@ -8362,34 +8382,34 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B34" s="140" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="98"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B35" s="143" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="145"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="99"/>
       <c r="F35" s="78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="80" t="s">
         <v>20</v>
       </c>
@@ -8405,7 +8425,7 @@
         <v>0.76320678028475641</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="101">
         <v>2019</v>
       </c>
@@ -8418,7 +8438,7 @@
       <c r="E37" s="104"/>
       <c r="F37" s="88"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="101">
         <v>2018</v>
       </c>
@@ -8431,7 +8451,7 @@
       <c r="E38" s="104"/>
       <c r="F38" s="88"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="101">
         <v>2017</v>
       </c>
@@ -8444,26 +8464,26 @@
       <c r="E39" s="104"/>
       <c r="F39" s="88"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="76" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J43" s="77" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B44" s="131" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="134"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="135"/>
       <c r="J44" s="78" t="s">
         <v>160</v>
       </c>
@@ -8474,16 +8494,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B45" s="131" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="135"/>
       <c r="I45" s="8"/>
       <c r="J45" s="79">
         <f>SUMPRODUCT(C48:C57,D48:D57)/SUM(D48:D57)</f>
@@ -8498,28 +8518,28 @@
         <v>0.15765869631908236</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134" t="s">
+      <c r="D46" s="136"/>
+      <c r="E46" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="134"/>
-      <c r="G46" s="135" t="s">
+      <c r="F46" s="136"/>
+      <c r="G46" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="136"/>
+      <c r="H46" s="138"/>
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:16" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:16" ht="75" x14ac:dyDescent="0.25">
       <c r="B47" s="81" t="s">
         <v>20</v>
       </c>
@@ -8542,17 +8562,17 @@
         <v>136</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="130" t="s">
+      <c r="J47" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>2019</v>
       </c>
@@ -8583,7 +8603,7 @@
       <c r="O48" s="85"/>
       <c r="P48" s="85"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>2018</v>
       </c>
@@ -8612,7 +8632,7 @@
       <c r="M49" s="85"/>
       <c r="N49" s="85"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>2017</v>
       </c>
@@ -8641,7 +8661,7 @@
       <c r="M50" s="85"/>
       <c r="N50" s="85"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>2016</v>
       </c>
@@ -8670,7 +8690,7 @@
       <c r="M51" s="85"/>
       <c r="N51" s="85"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>2015</v>
       </c>
@@ -8695,7 +8715,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="86">
         <v>2014</v>
       </c>
@@ -8720,7 +8740,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="86">
         <v>2013</v>
       </c>
@@ -8745,7 +8765,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="86">
         <v>2012</v>
       </c>
@@ -8770,7 +8790,7 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="86">
         <v>2011</v>
       </c>
@@ -8793,7 +8813,7 @@
         <v>7746.4999999999991</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="86">
         <v>2010</v>
       </c>
@@ -8818,23 +8838,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8842,14 +8862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -8867,7 +8887,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -8885,7 +8905,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -8901,7 +8921,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>107</v>
       </c>
@@ -8919,7 +8939,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -8937,7 +8957,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -8955,7 +8975,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -8971,7 +8991,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>81</v>
       </c>
@@ -9015,7 +9035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -9059,7 +9079,7 @@
         <v>94331</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -9101,7 +9121,7 @@
         <v>93132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -9143,7 +9163,7 @@
         <v>101822</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -9185,7 +9205,7 @@
         <v>96875</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -9227,7 +9247,7 @@
         <v>97324</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -9269,7 +9289,7 @@
         <v>95286</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -9311,7 +9331,7 @@
         <v>95951</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -9353,7 +9373,7 @@
         <v>99793</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -9395,7 +9415,7 @@
         <v>101541</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -9437,7 +9457,7 @@
         <v>107493</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -9479,7 +9499,7 @@
         <v>108617</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -9521,7 +9541,7 @@
         <v>109607</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -9563,7 +9583,7 @@
         <v>113605</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -9605,7 +9625,7 @@
         <v>109564.88503064183</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -9647,7 +9667,7 @@
         <v>101667.66816909495</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -9689,7 +9709,7 @@
         <v>109297</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -9731,7 +9751,7 @@
         <v>101705.77012559999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -9773,7 +9793,7 @@
         <v>110764.95492887127</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -9815,7 +9835,7 @@
         <v>104204.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -9857,7 +9877,7 @@
         <v>101457</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -9899,7 +9919,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -9943,7 +9963,7 @@
         <v>110022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -9994,14 +10014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -10019,7 +10039,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -10037,7 +10057,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -10053,7 +10073,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>106</v>
       </c>
@@ -10071,7 +10091,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -10089,7 +10109,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -10107,7 +10127,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -10123,7 +10143,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>79</v>
       </c>
@@ -10167,7 +10187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -10211,7 +10231,7 @@
         <v>39214</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -10253,7 +10273,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -10295,7 +10315,7 @@
         <v>40566</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -10337,7 +10357,7 @@
         <v>36685</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -10379,7 +10399,7 @@
         <v>44641</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -10421,7 +10441,7 @@
         <v>36557</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -10463,7 +10483,7 @@
         <v>40650</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -10505,7 +10525,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -10547,7 +10567,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -10589,7 +10609,7 @@
         <v>47948</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -10631,7 +10651,7 @@
         <v>46896</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -10673,7 +10693,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -10715,7 +10735,7 @@
         <v>47805.654799999997</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -10757,7 +10777,7 @@
         <v>46911.623420000004</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -10799,7 +10819,7 @@
         <v>44715.734390000012</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -10841,7 +10861,7 @@
         <v>51642</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -10883,7 +10903,7 @@
         <v>45544.785926000004</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -10925,7 +10945,7 @@
         <v>53642.439892999988</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -10967,7 +10987,7 @@
         <v>48361.714998000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -11009,7 +11029,7 @@
         <v>44934.24882299998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -11051,7 +11071,7 @@
         <v>57932.432542000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -11095,7 +11115,7 @@
         <v>52669.430516428569</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -11146,14 +11166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -11171,7 +11191,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -11189,7 +11209,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -11205,7 +11225,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>103</v>
       </c>
@@ -11223,7 +11243,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -11241,7 +11261,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -11259,7 +11279,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -11275,7 +11295,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>29</v>
       </c>
@@ -11319,7 +11339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -11363,7 +11383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -11405,7 +11425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -11447,7 +11467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -11489,7 +11509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -11531,7 +11551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -11573,7 +11593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -11615,7 +11635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -11657,7 +11677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -11699,7 +11719,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -11741,7 +11761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -11783,7 +11803,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -11825,7 +11845,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -11867,7 +11887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -11909,7 +11929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -11951,7 +11971,7 @@
         <v>90848.02</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -11993,7 +12013,7 @@
         <v>79051.785450000025</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -12035,7 +12055,7 @@
         <v>69270</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -12077,7 +12097,7 @@
         <v>95803.3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -12119,7 +12139,7 @@
         <v>91339</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -12161,7 +12181,7 @@
         <v>85296</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -12203,7 +12223,7 @@
         <v>99054</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -12247,7 +12267,7 @@
         <v>97900.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -12288,7 +12308,7 @@
         <v>98608.8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
@@ -12302,7 +12322,7 @@
       <c r="M32" s="53"/>
       <c r="N32" s="53"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
@@ -12316,7 +12336,7 @@
       <c r="M33" s="53"/>
       <c r="N33" s="53"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
@@ -12330,7 +12350,7 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -12354,14 +12374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -12379,7 +12399,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -12397,7 +12417,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12413,7 +12433,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>105</v>
       </c>
@@ -12431,7 +12451,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -12449,7 +12469,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -12467,7 +12487,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -12483,7 +12503,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>45</v>
       </c>
@@ -12527,7 +12547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -12571,7 +12591,7 @@
         <v>48274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -12613,7 +12633,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -12655,7 +12675,7 @@
         <v>26725</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -12697,7 +12717,7 @@
         <v>25415</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -12739,7 +12759,7 @@
         <v>30137</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -12781,7 +12801,7 @@
         <v>25951</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -12823,7 +12843,7 @@
         <v>27710</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -12865,7 +12885,7 @@
         <v>27259</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -12907,7 +12927,7 @@
         <v>29782</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -12949,7 +12969,7 @@
         <v>31764</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -12991,7 +13011,7 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -13033,7 +13053,7 @@
         <v>29560</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -13075,7 +13095,7 @@
         <v>32361</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -13117,7 +13137,7 @@
         <v>32027.600315534684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -13159,7 +13179,7 @@
         <v>37555.231023997796</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -13201,7 +13221,7 @@
         <v>39242.485585366201</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -13243,7 +13263,7 @@
         <v>33281.504999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -13285,7 +13305,7 @@
         <v>37044.879262497503</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -13327,7 +13347,7 @@
         <v>33526.535999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -13369,7 +13389,7 @@
         <v>30846.952388628401</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -13411,7 +13431,7 @@
         <v>41533.675000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -13455,7 +13475,7 @@
         <v>39984.583269292452</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -13506,14 +13526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -13531,7 +13551,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -13549,7 +13569,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -13565,7 +13585,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -13583,7 +13603,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -13601,7 +13621,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>63</v>
       </c>
@@ -13619,7 +13639,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -13635,7 +13655,7 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>48</v>
       </c>
@@ -13679,7 +13699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -13723,7 +13743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="41">
         <v>1997</v>
@@ -13765,7 +13785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="41">
         <v>1998</v>
@@ -13807,7 +13827,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="41">
         <v>1999</v>
@@ -13849,7 +13869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="41">
         <v>2000</v>
@@ -13891,7 +13911,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="41">
         <v>2001</v>
@@ -13933,7 +13953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="41">
         <v>2002</v>
@@ -13975,7 +13995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="41">
         <v>2003</v>
@@ -14017,7 +14037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="41">
         <v>2004</v>
@@ -14059,7 +14079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="41">
         <v>2005</v>
@@ -14101,7 +14121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="41">
         <v>2006</v>
@@ -14143,7 +14163,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="41">
         <v>2007</v>
@@ -14185,7 +14205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="41">
         <v>2008</v>
@@ -14227,7 +14247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="41">
         <v>2009</v>
@@ -14269,7 +14289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="41">
         <v>2010</v>
@@ -14311,7 +14331,7 @@
         <v>115535</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="41">
         <v>2011</v>
@@ -14353,7 +14373,7 @@
         <v>122418</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -14395,7 +14415,7 @@
         <v>109947.899</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -14437,7 +14457,7 @@
         <v>124072</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -14479,7 +14499,7 @@
         <v>114047.334</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -14521,7 +14541,7 @@
         <v>104494</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -14563,7 +14583,7 @@
         <v>131021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -14607,7 +14627,7 @@
         <v>125798</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>
@@ -14658,14 +14678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -14683,7 +14703,7 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -14701,7 +14721,7 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -14717,7 +14737,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>98</v>
       </c>
@@ -14735,7 +14755,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>99</v>
       </c>
@@ -14753,7 +14773,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>63</v>
       </c>
@@ -14771,7 +14791,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14787,7 +14807,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>69</v>
       </c>
@@ -14831,7 +14851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
         <v>66</v>
       </c>
@@ -14875,7 +14895,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="147"/>
       <c r="B10" s="39">
         <v>1997</v>
@@ -14917,7 +14937,7 @@
         <v>41178</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="147"/>
       <c r="B11" s="39">
         <v>1998</v>
@@ -14959,7 +14979,7 @@
         <v>41728</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="147"/>
       <c r="B12" s="39">
         <v>1999</v>
@@ -15001,7 +15021,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="147"/>
       <c r="B13" s="39">
         <v>2000</v>
@@ -15043,7 +15063,7 @@
         <v>43852</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="B14" s="39">
         <v>2001</v>
@@ -15085,7 +15105,7 @@
         <v>42540</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="B15" s="39">
         <v>2002</v>
@@ -15127,7 +15147,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="39">
         <v>2003</v>
@@ -15169,7 +15189,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="B17" s="39">
         <v>2004</v>
@@ -15211,7 +15231,7 @@
         <v>67224</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="147"/>
       <c r="B18" s="39">
         <v>2005</v>
@@ -15253,7 +15273,7 @@
         <v>46828</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
       <c r="B19" s="39">
         <v>2006</v>
@@ -15295,7 +15315,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
       <c r="B20" s="39">
         <v>2007</v>
@@ -15337,7 +15357,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
       <c r="B21" s="39">
         <v>2008</v>
@@ -15379,7 +15399,7 @@
         <v>45695</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="147"/>
       <c r="B22" s="39">
         <v>2009</v>
@@ -15421,7 +15441,7 @@
         <v>44864.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="147"/>
       <c r="B23" s="39">
         <v>2010</v>
@@ -15463,7 +15483,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="147"/>
       <c r="B24" s="39">
         <v>2011</v>
@@ -15505,7 +15525,7 @@
         <v>46788</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="147"/>
       <c r="B25" s="41">
         <v>2012</v>
@@ -15547,7 +15567,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="B26" s="41">
         <v>2013</v>
@@ -15589,7 +15609,7 @@
         <v>45908.1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="B27" s="41">
         <v>2014</v>
@@ -15631,7 +15651,7 @@
         <v>42907</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="B28" s="41">
         <v>2015</v>
@@ -15673,7 +15693,7 @@
         <v>39411</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="147"/>
       <c r="B29" s="41">
         <v>2016</v>
@@ -15715,7 +15735,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>100</v>
       </c>
@@ -15759,7 +15779,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>102</v>
       </c>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C98EDD-46A9-4EF6-816D-09F8100BAE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE6592B-7598-4219-8A71-C12E87E1546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="225">
   <si>
     <t>June</t>
   </si>
@@ -734,7 +734,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen fuel cell</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,6 +942,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1465,17 +1475,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1495,6 +1512,9 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1513,15 +1533,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1538,8 +1549,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2325,48 +2337,48 @@
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132" t="s">
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="132"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
@@ -2487,7 +2499,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="134" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2609,7 +2621,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="20" t="s">
         <v>69</v>
       </c>
@@ -2729,7 +2741,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="20" t="s">
         <v>70</v>
       </c>
@@ -2865,7 +2877,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="20" t="s">
         <v>71</v>
       </c>
@@ -2985,7 +2997,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="20" t="s">
         <v>73</v>
       </c>
@@ -3105,7 +3117,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="20" t="s">
         <v>74</v>
       </c>
@@ -3225,7 +3237,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="20" t="s">
         <v>75</v>
       </c>
@@ -3345,7 +3357,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="20" t="s">
         <v>29</v>
       </c>
@@ -3465,7 +3477,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="20" t="s">
         <v>76</v>
       </c>
@@ -3585,7 +3597,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -3705,7 +3717,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="20" t="s">
         <v>77</v>
       </c>
@@ -3825,7 +3837,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
@@ -3945,7 +3957,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="20" t="s">
         <v>45</v>
       </c>
@@ -4623,36 +4635,36 @@
       <c r="AN23" s="26"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
@@ -4667,36 +4679,36 @@
       <c r="AN24" s="26"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
@@ -4711,36 +4723,36 @@
       <c r="AN25" s="26"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
@@ -5661,10 +5673,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5906,80 +5918,91 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
+      <c r="A19" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="136">
+      <c r="B19" s="110">
         <f>$B$18</f>
         <v>0.9</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="110">
         <f>$B$18</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="135" t="s">
+      <c r="A20" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="136">
+      <c r="B20" s="110">
         <f t="shared" ref="B20:C24" si="0">$B$18</f>
         <v>0.9</v>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="136">
+      <c r="B21" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C21" s="136">
+      <c r="C21" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
+      <c r="A22" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="136">
+      <c r="B22" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C22" s="136">
+      <c r="C22" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="136">
+      <c r="B23" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C23" s="136">
+      <c r="C23" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="136">
+      <c r="B24" s="110">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="110">
         <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="136" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25">
         <v>0.9</v>
       </c>
     </row>
@@ -6377,10 +6400,10 @@
       <c r="B10" s="56">
         <v>1</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="111">
         <v>0.04</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="57"/>
       <c r="F10" s="55"/>
     </row>
@@ -6388,10 +6411,10 @@
       <c r="B11" s="56">
         <v>2</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="111">
         <v>0.03</v>
       </c>
-      <c r="D11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="57"/>
       <c r="F11" s="55"/>
       <c r="G11" s="57"/>
@@ -6411,10 +6434,10 @@
       <c r="B12" s="56">
         <v>3</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="111">
         <v>0.18</v>
       </c>
-      <c r="D12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="57"/>
       <c r="F12" s="55"/>
     </row>
@@ -6422,10 +6445,10 @@
       <c r="B13" s="56">
         <v>4</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="111">
         <v>0.15</v>
       </c>
-      <c r="D13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="57"/>
       <c r="F13" s="55"/>
     </row>
@@ -6433,10 +6456,10 @@
       <c r="B14" s="56">
         <v>5</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="111">
         <v>0.16</v>
       </c>
-      <c r="D14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="57"/>
       <c r="F14" s="55"/>
     </row>
@@ -6444,10 +6467,10 @@
       <c r="B15" s="56">
         <v>6</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="111">
         <v>0.31</v>
       </c>
-      <c r="D15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="57"/>
       <c r="F15" s="55"/>
     </row>
@@ -6455,10 +6478,10 @@
       <c r="B16" s="56">
         <v>7</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="111">
         <v>0.39</v>
       </c>
-      <c r="D16" s="110"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="57"/>
       <c r="F16" s="55"/>
     </row>
@@ -6466,10 +6489,10 @@
       <c r="B17" s="56">
         <v>8</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="111">
         <v>0.27</v>
       </c>
-      <c r="D17" s="110"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="57"/>
       <c r="F17" s="55"/>
     </row>
@@ -6477,10 +6500,10 @@
       <c r="B18" s="56">
         <v>9</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="57"/>
       <c r="F18" s="55"/>
     </row>
@@ -6488,10 +6511,10 @@
       <c r="B19" s="56">
         <v>10</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="111">
         <v>0.02</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="57"/>
       <c r="F19" s="55"/>
     </row>
@@ -6499,10 +6522,10 @@
       <c r="B20" s="56">
         <v>11</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="111">
         <v>0.02</v>
       </c>
-      <c r="D20" s="110"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="57"/>
       <c r="F20" s="55"/>
       <c r="L20" s="57"/>
@@ -6511,10 +6534,10 @@
       <c r="B21" s="56">
         <v>12</v>
       </c>
-      <c r="C21" s="110">
+      <c r="C21" s="111">
         <v>0</v>
       </c>
-      <c r="D21" s="110"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="57"/>
       <c r="F21" s="55"/>
     </row>
@@ -6556,10 +6579,10 @@
       <c r="B26" s="56">
         <v>1</v>
       </c>
-      <c r="C26" s="110">
+      <c r="C26" s="111">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="110"/>
+      <c r="D26" s="111"/>
       <c r="E26" s="60"/>
       <c r="F26" s="55"/>
     </row>
@@ -6567,10 +6590,10 @@
       <c r="B27" s="56">
         <v>2</v>
       </c>
-      <c r="C27" s="110">
+      <c r="C27" s="111">
         <v>0.12</v>
       </c>
-      <c r="D27" s="110"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="60"/>
       <c r="F27" s="55"/>
     </row>
@@ -6578,10 +6601,10 @@
       <c r="B28" s="56">
         <v>3</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D28" s="110"/>
+      <c r="D28" s="111"/>
       <c r="E28" s="60"/>
       <c r="F28" s="55"/>
     </row>
@@ -6589,10 +6612,10 @@
       <c r="B29" s="56">
         <v>4</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="111">
         <v>0.25</v>
       </c>
-      <c r="D29" s="110"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="60"/>
       <c r="F29" s="55"/>
     </row>
@@ -6600,10 +6623,10 @@
       <c r="B30" s="56">
         <v>5</v>
       </c>
-      <c r="C30" s="110">
+      <c r="C30" s="111">
         <v>0.25</v>
       </c>
-      <c r="D30" s="110"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="60"/>
       <c r="F30" s="55"/>
     </row>
@@ -6611,10 +6634,10 @@
       <c r="B31" s="56">
         <v>6</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="111">
         <v>0.33</v>
       </c>
-      <c r="D31" s="110"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="60"/>
       <c r="F31" s="55"/>
     </row>
@@ -6622,10 +6645,10 @@
       <c r="B32" s="56">
         <v>7</v>
       </c>
-      <c r="C32" s="110">
+      <c r="C32" s="111">
         <v>0.23</v>
       </c>
-      <c r="D32" s="110"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="60"/>
       <c r="F32" s="55"/>
     </row>
@@ -6633,10 +6656,10 @@
       <c r="B33" s="56">
         <v>8</v>
       </c>
-      <c r="C33" s="110">
+      <c r="C33" s="111">
         <v>0.21</v>
       </c>
-      <c r="D33" s="110"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="60"/>
       <c r="F33" s="55"/>
     </row>
@@ -6644,10 +6667,10 @@
       <c r="B34" s="56">
         <v>9</v>
       </c>
-      <c r="C34" s="110">
+      <c r="C34" s="111">
         <v>0.15</v>
       </c>
-      <c r="D34" s="110"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="60"/>
       <c r="F34" s="55"/>
     </row>
@@ -6655,10 +6678,10 @@
       <c r="B35" s="56">
         <v>10</v>
       </c>
-      <c r="C35" s="110">
+      <c r="C35" s="111">
         <v>0.08</v>
       </c>
-      <c r="D35" s="110"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="60"/>
       <c r="F35" s="55"/>
     </row>
@@ -6666,10 +6689,10 @@
       <c r="B36" s="56">
         <v>11</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="111">
         <v>0.12</v>
       </c>
-      <c r="D36" s="110"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="60"/>
       <c r="F36" s="55"/>
     </row>
@@ -6677,10 +6700,10 @@
       <c r="B37" s="56">
         <v>12</v>
       </c>
-      <c r="C37" s="110">
+      <c r="C37" s="111">
         <v>0.13</v>
       </c>
-      <c r="D37" s="110"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="60"/>
       <c r="F37" s="55"/>
     </row>
@@ -6742,8 +6765,8 @@
     </row>
     <row r="46" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="55"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
     </row>
@@ -7728,12 +7751,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -7746,15 +7772,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7916,15 +7939,15 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="J3" s="69" t="s">
         <v>130</v>
       </c>
@@ -7937,15 +7960,15 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="8"/>
       <c r="J4" s="70">
         <f>SUMPRODUCT(C7:C16,D7:D16)/SUM(D7:D16)</f>
@@ -7965,18 +7988,18 @@
       <c r="B5" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117" t="s">
+      <c r="D5" s="120"/>
+      <c r="E5" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118" t="s">
+      <c r="F5" s="120"/>
+      <c r="G5" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="119"/>
+      <c r="H5" s="122"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -8006,15 +8029,15 @@
         <v>136</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -8313,11 +8336,11 @@
       <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
       <c r="F22" s="79" t="s">
         <v>148</v>
       </c>
@@ -8326,11 +8349,11 @@
       <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
       <c r="F23" s="80">
         <f>SUMPRODUCT(C25:C27,D25:D27)/SUM(D25:D27)</f>
         <v>6.8617832470217896E-2</v>
@@ -8395,36 +8418,36 @@
       <c r="D27" s="86">
         <v>928.7</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="87"/>
       <c r="C28" s="87"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="87"/>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="67" t="s">
@@ -8443,20 +8466,20 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="88"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="126" t="s">
+      <c r="B35" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="128"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="89"/>
       <c r="F35" s="69" t="s">
         <v>155</v>
@@ -8528,15 +8551,15 @@
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="116"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="119"/>
       <c r="J44" s="69" t="s">
         <v>160</v>
       </c>
@@ -8548,15 +8571,15 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="116"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="119"/>
       <c r="I45" s="8"/>
       <c r="J45" s="70">
         <f>SUMPRODUCT(C48:C57,D48:D57)/SUM(D48:D57)</f>
@@ -8575,18 +8598,18 @@
       <c r="B46" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117" t="s">
+      <c r="D46" s="120"/>
+      <c r="E46" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="117"/>
-      <c r="G46" s="118" t="s">
+      <c r="F46" s="120"/>
+      <c r="G46" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="119"/>
+      <c r="H46" s="122"/>
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -8615,15 +8638,15 @@
         <v>136</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="113" t="s">
+      <c r="J47" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
@@ -8891,23 +8914,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9089,7 +9112,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="44">
@@ -9133,7 +9156,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="35">
         <v>1997</v>
       </c>
@@ -9175,7 +9198,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="35">
         <v>1998</v>
       </c>
@@ -9217,7 +9240,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="35">
         <v>1999</v>
       </c>
@@ -9259,7 +9282,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>2000</v>
       </c>
@@ -9301,7 +9324,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="35">
         <v>2001</v>
       </c>
@@ -9343,7 +9366,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="35">
         <v>2002</v>
       </c>
@@ -9385,7 +9408,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="35">
         <v>2003</v>
       </c>
@@ -9427,7 +9450,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="35">
         <v>2004</v>
       </c>
@@ -9469,7 +9492,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="35">
         <v>2005</v>
       </c>
@@ -9511,7 +9534,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="35">
         <v>2006</v>
       </c>
@@ -9553,7 +9576,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="35">
         <v>2007</v>
       </c>
@@ -9595,7 +9618,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="35">
         <v>2008</v>
       </c>
@@ -9637,7 +9660,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="35">
         <v>2009</v>
       </c>
@@ -9679,7 +9702,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="35">
         <v>2010</v>
       </c>
@@ -9721,7 +9744,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="35">
         <v>2011</v>
       </c>
@@ -9763,7 +9786,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -9805,7 +9828,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -9847,7 +9870,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -9889,7 +9912,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -9931,7 +9954,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
@@ -10241,7 +10264,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="44">
@@ -10285,7 +10308,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="35">
         <v>1997</v>
       </c>
@@ -10327,7 +10350,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="35">
         <v>1998</v>
       </c>
@@ -10369,7 +10392,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="35">
         <v>1999</v>
       </c>
@@ -10411,7 +10434,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>2000</v>
       </c>
@@ -10453,7 +10476,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="35">
         <v>2001</v>
       </c>
@@ -10495,7 +10518,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="35">
         <v>2002</v>
       </c>
@@ -10537,7 +10560,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="35">
         <v>2003</v>
       </c>
@@ -10579,7 +10602,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="35">
         <v>2004</v>
       </c>
@@ -10621,7 +10644,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="35">
         <v>2005</v>
       </c>
@@ -10663,7 +10686,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="35">
         <v>2006</v>
       </c>
@@ -10705,7 +10728,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="35">
         <v>2007</v>
       </c>
@@ -10747,7 +10770,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="35">
         <v>2008</v>
       </c>
@@ -10789,7 +10812,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="35">
         <v>2009</v>
       </c>
@@ -10831,7 +10854,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="35">
         <v>2010</v>
       </c>
@@ -10873,7 +10896,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="35">
         <v>2011</v>
       </c>
@@ -10915,7 +10938,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -10957,7 +10980,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -10999,7 +11022,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -11041,7 +11064,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -11083,7 +11106,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
@@ -11393,7 +11416,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="44">
@@ -11437,7 +11460,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="35">
         <v>1997</v>
       </c>
@@ -11479,7 +11502,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="35">
         <v>1998</v>
       </c>
@@ -11521,7 +11544,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="35">
         <v>1999</v>
       </c>
@@ -11563,7 +11586,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>2000</v>
       </c>
@@ -11605,7 +11628,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="35">
         <v>2001</v>
       </c>
@@ -11647,7 +11670,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="35">
         <v>2002</v>
       </c>
@@ -11689,7 +11712,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="35">
         <v>2003</v>
       </c>
@@ -11731,7 +11754,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="35">
         <v>2004</v>
       </c>
@@ -11773,7 +11796,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="35">
         <v>2005</v>
       </c>
@@ -11815,7 +11838,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="35">
         <v>2006</v>
       </c>
@@ -11857,7 +11880,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="35">
         <v>2007</v>
       </c>
@@ -11899,7 +11922,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="35">
         <v>2008</v>
       </c>
@@ -11941,7 +11964,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="35">
         <v>2009</v>
       </c>
@@ -11983,7 +12006,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="35">
         <v>2010</v>
       </c>
@@ -12025,7 +12048,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="35">
         <v>2011</v>
       </c>
@@ -12067,7 +12090,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -12109,7 +12132,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -12151,7 +12174,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -12193,7 +12216,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -12235,7 +12258,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
@@ -12601,7 +12624,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="44">
@@ -12645,7 +12668,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="35">
         <v>1997</v>
       </c>
@@ -12687,7 +12710,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="35">
         <v>1998</v>
       </c>
@@ -12729,7 +12752,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="35">
         <v>1999</v>
       </c>
@@ -12771,7 +12794,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>2000</v>
       </c>
@@ -12813,7 +12836,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="35">
         <v>2001</v>
       </c>
@@ -12855,7 +12878,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="35">
         <v>2002</v>
       </c>
@@ -12897,7 +12920,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="35">
         <v>2003</v>
       </c>
@@ -12939,7 +12962,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="35">
         <v>2004</v>
       </c>
@@ -12981,7 +13004,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="35">
         <v>2005</v>
       </c>
@@ -13023,7 +13046,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="35">
         <v>2006</v>
       </c>
@@ -13065,7 +13088,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="35">
         <v>2007</v>
       </c>
@@ -13107,7 +13130,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="35">
         <v>2008</v>
       </c>
@@ -13149,7 +13172,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="35">
         <v>2009</v>
       </c>
@@ -13191,7 +13214,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="35">
         <v>2010</v>
       </c>
@@ -13233,7 +13256,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="35">
         <v>2011</v>
       </c>
@@ -13275,7 +13298,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -13317,7 +13340,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -13359,7 +13382,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -13401,7 +13424,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -13443,7 +13466,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
@@ -13753,7 +13776,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="44">
@@ -13797,7 +13820,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="35">
         <v>1997</v>
       </c>
@@ -13839,7 +13862,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="35">
         <v>1998</v>
       </c>
@@ -13881,7 +13904,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="35">
         <v>1999</v>
       </c>
@@ -13923,7 +13946,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>2000</v>
       </c>
@@ -13965,7 +13988,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="35">
         <v>2001</v>
       </c>
@@ -14007,7 +14030,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="35">
         <v>2002</v>
       </c>
@@ -14049,7 +14072,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="35">
         <v>2003</v>
       </c>
@@ -14091,7 +14114,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="35">
         <v>2004</v>
       </c>
@@ -14133,7 +14156,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="35">
         <v>2005</v>
       </c>
@@ -14175,7 +14198,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="35">
         <v>2006</v>
       </c>
@@ -14217,7 +14240,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="35">
         <v>2007</v>
       </c>
@@ -14259,7 +14282,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="35">
         <v>2008</v>
       </c>
@@ -14301,7 +14324,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="35">
         <v>2009</v>
       </c>
@@ -14343,7 +14366,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="35">
         <v>2010</v>
       </c>
@@ -14385,7 +14408,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="35">
         <v>2011</v>
       </c>
@@ -14427,7 +14450,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -14469,7 +14492,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -14511,7 +14534,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -14553,7 +14576,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -14595,7 +14618,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
@@ -14905,7 +14928,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="130" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="31">
@@ -14949,7 +14972,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="33">
         <v>1997</v>
       </c>
@@ -14991,7 +15014,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="33">
         <v>1998</v>
       </c>
@@ -15033,7 +15056,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="33">
         <v>1999</v>
       </c>
@@ -15075,7 +15098,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="33">
         <v>2000</v>
       </c>
@@ -15117,7 +15140,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="33">
         <v>2001</v>
       </c>
@@ -15159,7 +15182,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="33">
         <v>2002</v>
       </c>
@@ -15201,7 +15224,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="33">
         <v>2003</v>
       </c>
@@ -15243,7 +15266,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="33">
         <v>2004</v>
       </c>
@@ -15285,7 +15308,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="33">
         <v>2005</v>
       </c>
@@ -15327,7 +15350,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="33">
         <v>2006</v>
       </c>
@@ -15369,7 +15392,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="33">
         <v>2007</v>
       </c>
@@ -15411,7 +15434,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="33">
         <v>2008</v>
       </c>
@@ -15453,7 +15476,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="33">
         <v>2009</v>
       </c>
@@ -15495,7 +15518,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="33">
         <v>2010</v>
       </c>
@@ -15537,7 +15560,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="33">
         <v>2011</v>
       </c>
@@ -15579,7 +15602,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35">
         <v>2012</v>
       </c>
@@ -15621,7 +15644,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="35">
         <v>2013</v>
       </c>
@@ -15663,7 +15686,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="35">
         <v>2014</v>
       </c>
@@ -15705,7 +15728,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="35">
         <v>2015</v>
       </c>
@@ -15747,7 +15770,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="35">
         <v>2016</v>
       </c>
